--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J234"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Ampliación Mall Plaza Vespucio</t>
+          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>241609</v>
+        <v>48000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>24/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vicente Valdés I y II</t>
+          <t>Modificación Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VICENTE VALDES SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>51183</v>
+        <v>241609</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Ulmo</t>
+          <t>Vicente Valdés I y II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rentas El Ulmo SpA.</t>
+          <t>VICENTE VALDES SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>34200</v>
+        <v>51183</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 88</t>
+          <t>Proyecto Inmobiliario El Ulmo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pilares S.A.</t>
+          <t>Rentas El Ulmo SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>53541</v>
+        <v>34200</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>03/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Departamental - Froilán Roa</t>
+          <t>Edificio Vicente Valdés 88</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40035</v>
+        <v>53541</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 86</t>
+          <t>Departamental - Froilán Roa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>45000</v>
+        <v>40035</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/08/2021</t>
+          <t>13/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Roberto Eduardo González Fourcade</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/08/2021</t>
+          <t>12/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Edificio Gerónimo de Alderete</t>
+          <t>Edificio Vicente Valdés 86</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme X SpA</t>
+          <t>Roberto Eduardo González Fourcade</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>02/08/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Gerónimo de Alderete</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Inmobiliaria Terrafirme X SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edificio Américo Vespucio</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Calcurrupe Desarrollo SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>41000</v>
+        <v>48000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Edificio Chimbote</t>
+          <t>Edificio Américo Vespucio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
+          <t>Calcurrupe Desarrollo SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>30490</v>
+        <v>41000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>05/01/2021</t>
+          <t>05/02/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Avenida Vicuña Mackenna 11.115</t>
+          <t>Edificio Chimbote</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria El descubridor S.A.</t>
+          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15800</v>
+        <v>30490</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/09/2020</t>
+          <t>05/01/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edificio Froilán Roa</t>
+          <t>Avenida Vicuña Mackenna 11.115</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Froilán Roa SpA</t>
+          <t>Inmobiliaria El descubridor S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>55000</v>
+        <v>15800</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>08/09/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Froilán Roa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>48000</v>
+        <v>55000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul Uno</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria Mirador Azul Uno SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>32645</v>
+        <v>48000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nueva Uno</t>
+          <t>Edificio Mirador Azul Uno</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria Nueva Uno SpA</t>
+          <t>Inmobiliaria Mirador Azul Uno SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>32000</v>
+        <v>32645</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/05/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Condominio Santa Inés</t>
+          <t>Nueva Uno</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Nueva Uno SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>06/05/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Condominio Santa Inés</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>25/02/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Edificio Activa Vicuña</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Alto Hipodromo S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>33944</v>
+        <v>25000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificio Activa Vicuña</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria Alto Hipodromo S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>52900</v>
+        <v>33944</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/11/2019</t>
+          <t>09/12/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Edificios La Concepción</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria la marina S.A.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>46838</v>
+        <v>52900</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/11/2019</t>
+          <t>27/11/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificios La Concepción</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria la marina S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>52900</v>
+        <v>46838</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/11/2019</t>
+          <t>20/11/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación Edificio Aliwen</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28644</v>
+        <v>52900</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>07/11/2019</t>
+          <t>19/11/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Modificación Edificio Aliwen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Simonetti Inmobiliaria S.A.</t>
+          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>15000</v>
+        <v>28644</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/10/2019</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Departamental 3</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ameris UPC Departamental Tres SpA</t>
+          <t>Simonetti Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>58457</v>
+        <v>15000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>30/10/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación Mall Plaza Vespucio</t>
+          <t>Departamental 3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Ameris UPC Departamental Tres SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>170000</v>
+        <v>58457</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14/06/2019</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Florida Uno SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>47036</v>
+        <v>170000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/05/2019</t>
+          <t>14/06/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Arrendamientos Mirador SpA</t>
+          <t>Inmobiliaria La Florida Uno SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>71863</v>
+        <v>47036</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/05/2019</t>
+          <t>08/05/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Edificio Departamental 0891</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EUROCORP DOS S.A.</t>
+          <t>Arrendamientos Mirador SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>65844</v>
+        <v>71863</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/05/2019</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Edificio Quillayes La Florida</t>
+          <t>Edificio Departamental 0891</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Morros S.A.</t>
+          <t>EUROCORP DOS S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>48320</v>
+        <v>65844</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>06/05/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Activa Millaray Llanquihue</t>
+          <t>Edificio Quillayes La Florida</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inmobiliaria Plaza Chacabuco S.A</t>
+          <t>Inmobiliaria Los Morros S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>45588</v>
+        <v>48320</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11/03/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Edificio Mackenna Consistorial</t>
+          <t>Activa Millaray Llanquihue</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>INMOBILIARIA PILARES S.A.</t>
+          <t>Inmobiliaria Plaza Chacabuco S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>41100</v>
+        <v>45588</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>28/11/2018</t>
+          <t>11/03/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Condominio Santa Mónica</t>
+          <t>Edificio Mackenna Consistorial</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Mónica SpA</t>
+          <t>INMOBILIARIA PILARES S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>22000</v>
+        <v>41100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/08/2018</t>
+          <t>28/11/2018</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Edificios Exequiel Fernández</t>
+          <t>Condominio Santa Mónica</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
+          <t>Inmobiliaria Santa Mónica SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>62390</v>
+        <v>22000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/05/2018</t>
+          <t>24/08/2018</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Departamental 1475</t>
+          <t>Edificios Exequiel Fernández</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
+          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>28120</v>
+        <v>62390</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/09/2017</t>
+          <t>23/05/2018</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TORRES DE VICUÑA MACKENNA</t>
+          <t>Departamental 1475</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>17000</v>
+        <v>28120</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/07/2017</t>
+          <t>08/09/2017</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>TORRES DE VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Vicente Tres Spa</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>24300</v>
+        <v>17000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>26/07/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Edificios Vista Bella Oriente</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vista Bella Ltda.</t>
+          <t>Inmobiliaria Don Vicente Tres Spa</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>28000</v>
+        <v>24300</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Edificios Froilán Lagos</t>
+          <t>Edificios Vista Bella Oriente</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Inmobiliaria PDV 70 Spa</t>
+          <t>Inmobiliaria Vista Bella Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>28942</v>
+        <v>28000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/05/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Edificios Froilán Lagos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria PDV 70 Spa</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>15100</v>
+        <v>28942</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>30/05/2016</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>16500</v>
+        <v>15100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>14/04/2016</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24300</v>
+        <v>16500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11/03/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>15100</v>
+        <v>24300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/02/2016</t>
+          <t>11/03/2016</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>24300</v>
+        <v>15100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>23/02/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Edificios Altavista Vicente Valdés</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>32216</v>
+        <v>24300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2651,21 +2651,21 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>8055</v>
+        <v>32216</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Edificios Altavista Vicente Valdés</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>24300</v>
+        <v>8055</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>11/05/2015</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Edificio Tres Lagos</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tres Lagos SpA</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>18930</v>
+        <v>24300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07/05/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Edificio Tres Lagos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria Tres Lagos SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>24000</v>
+        <v>18930</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/04/2015</t>
+          <t>07/05/2015</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>27/03/2015</t>
+          <t>16/04/2015</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>27/03/2015</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,11 +2939,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/03/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>24100</v>
+        <v>15100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>10/03/2015</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Colores del Abra</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic II S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>18861</v>
+        <v>24100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Colores del Abra</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Inmobiliaria Banvic II S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>24100</v>
+        <v>18861</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>23/01/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8055</v>
+        <v>15100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>8055</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Edificio Vicuña Mackenna-Vespucio</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Inversiones El Mirador Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Clínica Cruz Blanca Santiago</t>
+          <t>Edificio Vicuña Mackenna-Vespucio</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora CBS S.A.</t>
+          <t>Inversiones El Mirador Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>135406</v>
+        <v>30000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/06/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Clínica Cruz Blanca Santiago</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inmobiliaria y Constructora CBS S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>135406</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>10/06/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Condominio María Elena</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna Poniente</t>
+          <t>Condominio María Elena</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
+          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Condominio Vicuña Mackenna Poniente</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1231</v>
+        <v>100</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>800</v>
+        <v>1231</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>02/12/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,12 +4264,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Panul</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>80000</v>
+        <v>26062</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,12 +4312,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Proyecto Inmobiliario El Panul</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>26062</v>
+        <v>80000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO EL PANUL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>PROYECTO INMOBILIARIO EL PANUL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>1750</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4715,11 +4715,11 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/07/2010</t>
+          <t>05/08/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>23/07/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>6000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Condominio San Luis (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>VAIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4600</v>
+        <v>22</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Condominio San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>VAIN S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>746318</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>746318</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,12 +5714,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,12 +5762,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,11 +6347,11 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>60000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,20 +6578,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>8400</v>
+        <v>500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>20/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>20/05/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>EDIFICIO DON VICENTE (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>20590</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>22/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
+          <t>EDIFICIO DON VICENTE (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic I S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>26000</v>
+        <v>20590</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>22/02/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Inmobiliaria Banvic I S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>80</v>
+        <v>26000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,20 +7154,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,20 +7202,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>gasmar s.a.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,30 +7250,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,30 +7298,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,20 +7586,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,30 +7778,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,12 +7826,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>5300</v>
+        <v>1</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,30 +8066,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>200</v>
+        <v>5300</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8127,17 +8127,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,20 +8258,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Inmobiliaria Maka S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>15188</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,20 +8306,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Inmobiliaria Maka S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>15188</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,20 +8402,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>25/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
+          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>25/07/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,20 +8498,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>1327</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,25 +8599,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8655,17 +8655,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,20 +8690,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,30 +8738,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,20 +8978,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,20 +9026,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,25 +9127,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,30 +9170,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,12 +9314,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,20 +9362,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>12628</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
+          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,15 +9415,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A..</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>12628</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
+          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional de Energia ENEX S.A..</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>26/05/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>07/05/2004</t>
+          <t>26/05/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>07/05/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,15 +9607,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>18289</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>29/01/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
+          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>29000</v>
+        <v>18289</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>16/12/2002</t>
+          <t>29/01/2003</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>12/12/2002</t>
+          <t>16/12/2002</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>27/11/2002</t>
+          <t>12/12/2002</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>27/11/2002</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
+          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,25 +9943,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SHELL Chile S.A.C. e I.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,25 +9991,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>SHELL Chile S.A.C. e I.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>4000</v>
+        <v>740</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna</t>
+          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Arturo Garri Hammersley</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>17070</v>
+        <v>1000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Conjunto habitacional La Florida</t>
+          <t>Condominio Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Joaquín Luco Echeverría</t>
+          <t>Arturo Garri Hammersley</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>17070</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>24/01/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
+          <t>Conjunto habitacional La Florida</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Inmobiliaria VIMA S.A.</t>
+          <t>Joaquín Luco Echeverría</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>21/01/2002</t>
+          <t>24/01/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
+          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Inmobiliaria VIMA S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>21/01/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
+          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,30 +10370,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,30 +10418,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
+          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Proyecto Protege</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>21/06/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,30 +10504,30 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Asociación de Municipalidades Proyecto Protege</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1230</v>
+        <v>400</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>21/06/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Centro de Transferencia San Francisco</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,30 +10562,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>6400</v>
+        <v>1230</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,12 +10600,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Centro de Transferencia San Francisco</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10615,25 +10615,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10671,17 +10671,17 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10719,17 +10719,17 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>02/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,15 +10759,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Giralda Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>20/06/2000</t>
+          <t>02/01/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
+          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Inmobiliaria La Giralda Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Casa Parque de La Florida</t>
+          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,15 +10855,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>18300</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>10/05/2000</t>
+          <t>20/06/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Villa Parque Jardín del Edén</t>
+          <t>Casa Parque de La Florida</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,15 +10903,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Inmobiliaria Jardín del Edén S.A.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1130</v>
+        <v>18300</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>10/05/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Jardín de la Florida</t>
+          <t>Villa Parque Jardín del Edén</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,15 +10951,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Inmobiliaria Jardín del Edén S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>7900</v>
+        <v>1130</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>20/04/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rojas Magallanes</t>
+          <t>Proyecto Habitacional Jardín de la Florida</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,25 +10999,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Napo Ltda.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>10000</v>
+        <v>7900</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>15/03/1999</t>
+          <t>20/04/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Conjunto habitacional Rojas Magallanes IV</t>
+          <t>Conjunto Habitacional Rojas Magallanes</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,11 +11051,11 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>15/03/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
+          <t>Conjunto habitacional Rojas Magallanes IV</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,25 +11095,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Petroleum S.A.</t>
+          <t>Inmobiliaria Rio Napo Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>10/11/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Proyecto Mall Florida Center</t>
+          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,15 +11143,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Petroleum S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>108120</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>10/11/1998</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
+          <t>Proyecto Mall Florida Center</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,15 +11191,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>600</v>
+        <v>108120</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>23/07/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
+          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,15 +11239,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>20/05/1998</t>
+          <t>23/07/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Hipermercado Santa Amalia</t>
+          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,25 +11287,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>D S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>30/03/1998</t>
+          <t>20/05/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta de Agua Potable La Florida</t>
+          <t>Hipermercado Santa Amalia</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,25 +11335,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>D S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>23800</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>30/03/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
+          <t>Planta de Agua Potable La Florida</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,15 +11383,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Carlos Rivas García Huidobro</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>35190</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>28/11/1997</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
+          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,15 +11431,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SOFOCAR</t>
+          <t>Carlos Rivas García Huidobro</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>550</v>
+        <v>35190</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>28/11/1997</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>The Home Depot Plaza Vespucio</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,15 +11479,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>The Home Depot Chile S.A.</t>
+          <t>SOFOCAR</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>12000</v>
+        <v>550</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>03/11/1997</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+          <t>The Home Depot Plaza Vespucio</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,15 +11527,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Inversiones Macalto S.A.</t>
+          <t>The Home Depot Chile S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>276000</v>
+        <v>12000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>23/10/1997</t>
+          <t>03/11/1997</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,43 +11560,91 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Inversiones Macalto S.A.</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>276000</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>23/10/1997</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F234" t="n">
+      <c r="F235" t="n">
         <v>300000</v>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr">
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr">
+      <c r="J235" t="inlineStr">
         <is>
           <t>La Florida</t>
         </is>

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/06/2022</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
+          <t>Edificio Vicente Valdés 86</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>48000</v>
+        <v>45000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>11/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Ampliación Mall Plaza Vespucio</t>
+          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>241609</v>
+        <v>48000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vicente Valdés I y II</t>
+          <t>Modificación Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VICENTE VALDES SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>51183</v>
+        <v>241609</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Ulmo</t>
+          <t>Vicente Valdés I y II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rentas El Ulmo SpA.</t>
+          <t>VICENTE VALDES SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>34200</v>
+        <v>51183</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 88</t>
+          <t>Proyecto Inmobiliario El Ulmo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pilares S.A.</t>
+          <t>Rentas El Ulmo SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>53541</v>
+        <v>34200</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>03/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Departamental - Froilán Roa</t>
+          <t>Edificio Vicente Valdés 88</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>40035</v>
+        <v>53541</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 86</t>
+          <t>Departamental - Froilán Roa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>45000</v>
+        <v>40035</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12/08/2021</t>
+          <t>13/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 86</t>
+          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/08/2022</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
+          <t>Modificación Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>48000</v>
+        <v>241609</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Ampliación Mall Plaza Vespucio</t>
+          <t>Vicente Valdés I y II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>VICENTE VALDES SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>241609</v>
+        <v>51183</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vicente Valdés I y II</t>
+          <t>Proyecto Inmobiliario El Ulmo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VICENTE VALDES SPA</t>
+          <t>Rentas El Ulmo SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>51183</v>
+        <v>34200</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>03/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Ulmo</t>
+          <t>Edificio Vicente Valdés 88</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rentas El Ulmo SpA.</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>34200</v>
+        <v>53541</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/09/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 88</t>
+          <t>Departamental - Froilán Roa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pilares S.A.</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>53541</v>
+        <v>40035</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>13/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Departamental - Froilán Roa</t>
+          <t>Edificio Vicente Valdés 86</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40035</v>
+        <v>45000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>11/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Calcurrupe Desarrollo SpA</t>
+          <t>Inmobiliaria Vicuna Mackenna SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
+          <t>Proyecto Residencial Walker Martínez N°880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>José Antonio Santolaya Galarza</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>48000</v>
+        <v>35000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>23/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Ampliación Mall Plaza Vespucio</t>
+          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>241609</v>
+        <v>48000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vicente Valdés I y II</t>
+          <t>Modificación Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VICENTE VALDES SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>51183</v>
+        <v>241609</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Ulmo</t>
+          <t>Vicente Valdés I y II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rentas El Ulmo SpA.</t>
+          <t>VICENTE VALDES SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>34200</v>
+        <v>51183</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 88</t>
+          <t>Proyecto Inmobiliario El Ulmo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pilares S.A.</t>
+          <t>Rentas El Ulmo SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>53541</v>
+        <v>34200</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>03/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Departamental - Froilán Roa</t>
+          <t>Edificio Vicente Valdés 88</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>40035</v>
+        <v>53541</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 86</t>
+          <t>Departamental - Froilán Roa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>45000</v>
+        <v>40035</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11/08/2021</t>
+          <t>13/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Roberto Eduardo González Fourcade</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02/08/2021</t>
+          <t>11/08/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Edificio Gerónimo de Alderete</t>
+          <t>Edificio Vicente Valdés 86</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme X SpA</t>
+          <t>Roberto Eduardo González Fourcade</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>02/08/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Gerónimo de Alderete</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Inmobiliaria Terrafirme X SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Edificio Américo Vespucio</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicuna Mackenna SPA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>41000</v>
+        <v>48000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Edificio Chimbote</t>
+          <t>Edificio Américo Vespucio</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
+          <t>Inmobiliaria Vicuna Mackenna SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>30490</v>
+        <v>41000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05/01/2021</t>
+          <t>05/02/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Avenida Vicuña Mackenna 11.115</t>
+          <t>Edificio Chimbote</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria El descubridor S.A.</t>
+          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15800</v>
+        <v>30490</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/09/2020</t>
+          <t>05/01/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Edificio Froilán Roa</t>
+          <t>Avenida Vicuña Mackenna 11.115</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Froilán Roa SpA</t>
+          <t>Inmobiliaria El descubridor S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>55000</v>
+        <v>15800</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>08/09/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Froilán Roa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>48000</v>
+        <v>55000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul Uno</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria Mirador Azul Uno SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>32645</v>
+        <v>48000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nueva Uno</t>
+          <t>Edificio Mirador Azul Uno</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria Nueva Uno SpA</t>
+          <t>Inmobiliaria Mirador Azul Uno SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>32000</v>
+        <v>32645</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/05/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Condominio Santa Inés</t>
+          <t>Nueva Uno</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Nueva Uno SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>06/05/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Condominio Santa Inés</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>25/02/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Edificio Activa Vicuña</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Alto Hipodromo S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>33944</v>
+        <v>25000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificio Activa Vicuña</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria Alto Hipodromo S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>52900</v>
+        <v>33944</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/11/2019</t>
+          <t>09/12/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Edificios La Concepción</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria la marina S.A.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>46838</v>
+        <v>52900</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/11/2019</t>
+          <t>27/11/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificios La Concepción</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria la marina S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>52900</v>
+        <v>46838</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/11/2019</t>
+          <t>20/11/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Edificio Aliwen</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>28644</v>
+        <v>52900</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>07/11/2019</t>
+          <t>19/11/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Modificación Edificio Aliwen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Simonetti Inmobiliaria S.A.</t>
+          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>15000</v>
+        <v>28644</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/10/2019</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Departamental 3</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ameris UPC Departamental Tres SpA</t>
+          <t>Simonetti Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>58457</v>
+        <v>15000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>30/10/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación Mall Plaza Vespucio</t>
+          <t>Departamental 3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Ameris UPC Departamental Tres SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>170000</v>
+        <v>58457</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14/06/2019</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Florida Uno SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>47036</v>
+        <v>170000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/05/2019</t>
+          <t>14/06/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Arrendamientos Mirador SpA</t>
+          <t>Inmobiliaria La Florida Uno SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>71863</v>
+        <v>47036</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>07/05/2019</t>
+          <t>08/05/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Edificio Departamental 0891</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EUROCORP DOS S.A.</t>
+          <t>Arrendamientos Mirador SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>65844</v>
+        <v>71863</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/05/2019</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Edificio Quillayes La Florida</t>
+          <t>Edificio Departamental 0891</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Morros S.A.</t>
+          <t>EUROCORP DOS S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>48320</v>
+        <v>65844</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>06/05/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Activa Millaray Llanquihue</t>
+          <t>Edificio Quillayes La Florida</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inmobiliaria Plaza Chacabuco S.A</t>
+          <t>Inmobiliaria Los Morros S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>45588</v>
+        <v>48320</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11/03/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Edificio Mackenna Consistorial</t>
+          <t>Activa Millaray Llanquihue</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>INMOBILIARIA PILARES S.A.</t>
+          <t>Inmobiliaria Plaza Chacabuco S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>41100</v>
+        <v>45588</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>28/11/2018</t>
+          <t>11/03/2019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Condominio Santa Mónica</t>
+          <t>Edificio Mackenna Consistorial</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Mónica SpA</t>
+          <t>INMOBILIARIA PILARES S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>22000</v>
+        <v>41100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/08/2018</t>
+          <t>28/11/2018</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Edificios Exequiel Fernández</t>
+          <t>Condominio Santa Mónica</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
+          <t>Inmobiliaria Santa Mónica SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>62390</v>
+        <v>22000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/05/2018</t>
+          <t>24/08/2018</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Departamental 1475</t>
+          <t>Edificios Exequiel Fernández</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
+          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>28120</v>
+        <v>62390</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/09/2017</t>
+          <t>23/05/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TORRES DE VICUÑA MACKENNA</t>
+          <t>Departamental 1475</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>17000</v>
+        <v>28120</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/07/2017</t>
+          <t>08/09/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>TORRES DE VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Vicente Tres Spa</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>24300</v>
+        <v>17000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>26/07/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Edificios Vista Bella Oriente</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vista Bella Ltda.</t>
+          <t>Inmobiliaria Don Vicente Tres Spa</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>28000</v>
+        <v>24300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Edificios Froilán Lagos</t>
+          <t>Edificios Vista Bella Oriente</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Inmobiliaria PDV 70 Spa</t>
+          <t>Inmobiliaria Vista Bella Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>28942</v>
+        <v>28000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/05/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Edificios Froilán Lagos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria PDV 70 Spa</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>15100</v>
+        <v>28942</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>30/05/2016</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>16500</v>
+        <v>15100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>14/04/2016</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>24300</v>
+        <v>16500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11/03/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>15100</v>
+        <v>24300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/02/2016</t>
+          <t>11/03/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>24300</v>
+        <v>15100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>23/02/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Edificios Altavista Vicente Valdés</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>32216</v>
+        <v>24300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2699,21 +2699,21 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8055</v>
+        <v>32216</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Edificios Altavista Vicente Valdés</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>24300</v>
+        <v>8055</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>11/05/2015</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Edificio Tres Lagos</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tres Lagos SpA</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>18930</v>
+        <v>24300</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>07/05/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Edificio Tres Lagos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria Tres Lagos SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>24000</v>
+        <v>18930</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>16/04/2015</t>
+          <t>07/05/2015</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/03/2015</t>
+          <t>16/04/2015</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>27/03/2015</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/03/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>24100</v>
+        <v>15100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>10/03/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Colores del Abra</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic II S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>18861</v>
+        <v>24100</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Colores del Abra</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Inmobiliaria Banvic II S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>24100</v>
+        <v>18861</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>23/01/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8055</v>
+        <v>15100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>8055</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Edificio Vicuña Mackenna-Vespucio</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Inversiones El Mirador Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Clínica Cruz Blanca Santiago</t>
+          <t>Edificio Vicuña Mackenna-Vespucio</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora CBS S.A.</t>
+          <t>Inversiones El Mirador Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>135406</v>
+        <v>30000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/06/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Clínica Cruz Blanca Santiago</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inmobiliaria y Constructora CBS S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>135406</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>10/06/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Condominio María Elena</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna Poniente</t>
+          <t>Condominio María Elena</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
+          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Condominio Vicuña Mackenna Poniente</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1231</v>
+        <v>100</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>800</v>
+        <v>1231</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>02/12/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,26 +4312,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Panul</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,12 +4360,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Proyecto Inmobiliario El Panul</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>26062</v>
+        <v>80000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>800</v>
+        <v>26062</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO EL PANUL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>PROYECTO INMOBILIARIO EL PANUL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>1750</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>05/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4763,11 +4763,11 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23/07/2010</t>
+          <t>05/08/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>23/07/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>6000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Condominio San Luis (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>VAIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4600</v>
+        <v>22</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Condominio San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>VAIN S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>746318</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>746318</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,12 +5762,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,12 +5810,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,11 +6395,11 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>60000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6543,17 +6543,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,20 +6626,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,20 +6914,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>8400</v>
+        <v>500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>20/05/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>EDIFICIO DON VICENTE (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>20590</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>22/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
+          <t>EDIFICIO DON VICENTE (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic I S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>26000</v>
+        <v>20590</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>22/02/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Inmobiliaria Banvic I S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>80</v>
+        <v>26000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,20 +7202,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,20 +7250,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>gasmar s.a.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,30 +7298,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,30 +7346,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,20 +7634,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,30 +7826,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,12 +7874,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>5300</v>
+        <v>1</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,30 +8114,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>200</v>
+        <v>5300</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8175,17 +8175,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,20 +8306,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Inmobiliaria Maka S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>15188</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,20 +8354,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Inmobiliaria Maka S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>250</v>
+        <v>15188</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,20 +8450,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>25/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
+          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>25/07/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,20 +8546,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>500</v>
+        <v>1327</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8607,17 +8607,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,25 +8647,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8703,17 +8703,17 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,20 +8738,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,30 +8786,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,20 +9026,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,20 +9074,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,25 +9175,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,30 +9218,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,12 +9362,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9375,17 +9375,17 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,20 +9410,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>12628</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
+          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,15 +9463,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A..</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>12628</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
+          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional de Energia ENEX S.A..</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>26/05/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>07/05/2004</t>
+          <t>26/05/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>07/05/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>18289</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>29/01/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
+          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>29000</v>
+        <v>18289</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>16/12/2002</t>
+          <t>29/01/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>12/12/2002</t>
+          <t>16/12/2002</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>27/11/2002</t>
+          <t>12/12/2002</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>27/11/2002</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
+          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,25 +9991,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SHELL Chile S.A.C. e I.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,25 +10039,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>SHELL Chile S.A.C. e I.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4000</v>
+        <v>740</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna</t>
+          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Arturo Garri Hammersley</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>17070</v>
+        <v>1000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Conjunto habitacional La Florida</t>
+          <t>Condominio Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Joaquín Luco Echeverría</t>
+          <t>Arturo Garri Hammersley</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>17070</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>24/01/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
+          <t>Conjunto habitacional La Florida</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Inmobiliaria VIMA S.A.</t>
+          <t>Joaquín Luco Echeverría</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>21/01/2002</t>
+          <t>24/01/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
+          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Inmobiliaria VIMA S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>21/01/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
+          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,30 +10418,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,30 +10466,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
+          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Proyecto Protege</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>21/06/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,30 +10552,30 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Asociación de Municipalidades Proyecto Protege</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1230</v>
+        <v>400</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>21/06/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Centro de Transferencia San Francisco</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,30 +10610,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>6400</v>
+        <v>1230</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,12 +10648,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Centro de Transferencia San Francisco</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10663,25 +10663,25 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10719,17 +10719,17 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10767,17 +10767,17 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>02/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,15 +10807,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Giralda Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>20/06/2000</t>
+          <t>02/01/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
+          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Inmobiliaria La Giralda Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Casa Parque de La Florida</t>
+          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,15 +10903,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>18300</v>
+        <v>2000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>10/05/2000</t>
+          <t>20/06/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Villa Parque Jardín del Edén</t>
+          <t>Casa Parque de La Florida</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,15 +10951,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Inmobiliaria Jardín del Edén S.A.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1130</v>
+        <v>18300</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>10/05/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Jardín de la Florida</t>
+          <t>Villa Parque Jardín del Edén</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,15 +10999,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Inmobiliaria Jardín del Edén S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>7900</v>
+        <v>1130</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>20/04/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rojas Magallanes</t>
+          <t>Proyecto Habitacional Jardín de la Florida</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,25 +11047,25 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Napo Ltda.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>10000</v>
+        <v>7900</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>15/03/1999</t>
+          <t>20/04/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Conjunto habitacional Rojas Magallanes IV</t>
+          <t>Conjunto Habitacional Rojas Magallanes</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11099,11 +11099,11 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>15/03/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
+          <t>Conjunto habitacional Rojas Magallanes IV</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,25 +11143,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Petroleum S.A.</t>
+          <t>Inmobiliaria Rio Napo Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>10/11/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Proyecto Mall Florida Center</t>
+          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,15 +11191,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING S.A.</t>
+          <t>Petroleum S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>108120</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>10/11/1998</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
+          <t>Proyecto Mall Florida Center</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,15 +11239,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>600</v>
+        <v>108120</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>23/07/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
+          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,15 +11287,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>20/05/1998</t>
+          <t>23/07/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Hipermercado Santa Amalia</t>
+          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,25 +11335,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>D S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>30/03/1998</t>
+          <t>20/05/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Agua Potable La Florida</t>
+          <t>Hipermercado Santa Amalia</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,25 +11383,25 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>D S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>23800</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>30/03/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
+          <t>Planta de Agua Potable La Florida</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,15 +11431,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Carlos Rivas García Huidobro</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>35190</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>28/11/1997</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
+          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,15 +11479,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SOFOCAR</t>
+          <t>Carlos Rivas García Huidobro</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>550</v>
+        <v>35190</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>28/11/1997</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>The Home Depot Plaza Vespucio</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,15 +11527,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>The Home Depot Chile S.A.</t>
+          <t>SOFOCAR</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>12000</v>
+        <v>550</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>03/11/1997</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+          <t>The Home Depot Plaza Vespucio</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,15 +11575,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Inversiones Macalto S.A.</t>
+          <t>The Home Depot Chile S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>276000</v>
+        <v>12000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>23/10/1997</t>
+          <t>03/11/1997</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,43 +11608,91 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Inversiones Macalto S.A.</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>276000</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>23/10/1997</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F235" t="n">
+      <c r="F236" t="n">
         <v>300000</v>
       </c>
-      <c r="G235" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr">
+      <c r="J236" t="inlineStr">
         <is>
           <t>La Florida</t>
         </is>

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/12/2022</t>
+          <t>30/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F144" t="n">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Residencial Walker Martínez N°880</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>José Antonio Santolaya Galarza</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/12/2022</t>
+          <t>03/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158947322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
+          <t>Proyecto Residencial Walker Martínez N°880</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>José Antonio Santolaya Galarza</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>48000</v>
+        <v>35000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>30/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Ampliación Mall Plaza Vespucio</t>
+          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>241609</v>
+        <v>48000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vicente Valdés I y II</t>
+          <t>Modificación Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VICENTE VALDES SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>51183</v>
+        <v>241609</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Ulmo</t>
+          <t>Vicente Valdés I y II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rentas El Ulmo SpA.</t>
+          <t>VICENTE VALDES SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>34200</v>
+        <v>51183</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 88</t>
+          <t>Proyecto Inmobiliario El Ulmo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pilares S.A.</t>
+          <t>Rentas El Ulmo SpA.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>53541</v>
+        <v>34200</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>03/09/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Departamental - Froilán Roa</t>
+          <t>Edificio Vicente Valdés 88</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40035</v>
+        <v>53541</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 86</t>
+          <t>Departamental - Froilán Roa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>45000</v>
+        <v>40035</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11/08/2021</t>
+          <t>13/08/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Roberto Eduardo González Fourcade</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02/08/2021</t>
+          <t>11/08/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edificio Gerónimo de Alderete</t>
+          <t>Edificio Vicente Valdés 86</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme X SpA</t>
+          <t>Roberto Eduardo González Fourcade</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>02/08/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Gerónimo de Alderete</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Inmobiliaria Terrafirme X SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Edificio Américo Vespucio</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicuna Mackenna SPA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>41000</v>
+        <v>48000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edificio Chimbote</t>
+          <t>Edificio Américo Vespucio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
+          <t>Inmobiliaria Vicuna Mackenna SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>30490</v>
+        <v>41000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05/01/2021</t>
+          <t>05/02/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Avenida Vicuña Mackenna 11.115</t>
+          <t>Edificio Chimbote</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria El descubridor S.A.</t>
+          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15800</v>
+        <v>30490</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/09/2020</t>
+          <t>05/01/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edificio Froilán Roa</t>
+          <t>Avenida Vicuña Mackenna 11.115</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Froilán Roa SpA</t>
+          <t>Inmobiliaria El descubridor S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>55000</v>
+        <v>15800</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>08/09/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Froilán Roa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>48000</v>
+        <v>55000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul Uno</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria Mirador Azul Uno SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>32645</v>
+        <v>48000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nueva Uno</t>
+          <t>Edificio Mirador Azul Uno</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria Nueva Uno SpA</t>
+          <t>Inmobiliaria Mirador Azul Uno SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>32000</v>
+        <v>32645</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/05/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Condominio Santa Inés</t>
+          <t>Nueva Uno</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Nueva Uno SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>06/05/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Condominio Santa Inés</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>25/02/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Edificio Activa Vicuña</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria Alto Hipodromo S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>33944</v>
+        <v>25000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificio Activa Vicuña</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria Alto Hipodromo S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>52900</v>
+        <v>33944</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/11/2019</t>
+          <t>09/12/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Edificios La Concepción</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria la marina S.A.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>46838</v>
+        <v>52900</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11/2019</t>
+          <t>27/11/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificios La Concepción</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria la marina S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>52900</v>
+        <v>46838</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/11/2019</t>
+          <t>20/11/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Edificio Aliwen</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>28644</v>
+        <v>52900</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07/11/2019</t>
+          <t>19/11/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Modificación Edificio Aliwen</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Simonetti Inmobiliaria S.A.</t>
+          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>15000</v>
+        <v>28644</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/10/2019</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Departamental 3</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ameris UPC Departamental Tres SpA</t>
+          <t>Simonetti Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>58457</v>
+        <v>15000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>30/10/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación Mall Plaza Vespucio</t>
+          <t>Departamental 3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Ameris UPC Departamental Tres SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>170000</v>
+        <v>58457</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14/06/2019</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Florida Uno SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>47036</v>
+        <v>170000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/05/2019</t>
+          <t>14/06/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Arrendamientos Mirador SpA</t>
+          <t>Inmobiliaria La Florida Uno SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>71863</v>
+        <v>47036</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/05/2019</t>
+          <t>08/05/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Edificio Departamental 0891</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EUROCORP DOS S.A.</t>
+          <t>Arrendamientos Mirador SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>65844</v>
+        <v>71863</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06/05/2019</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Edificio Quillayes La Florida</t>
+          <t>Edificio Departamental 0891</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Morros S.A.</t>
+          <t>EUROCORP DOS S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>48320</v>
+        <v>65844</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>06/05/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Activa Millaray Llanquihue</t>
+          <t>Edificio Quillayes La Florida</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria Plaza Chacabuco S.A</t>
+          <t>Inmobiliaria Los Morros S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>45588</v>
+        <v>48320</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11/03/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Edificio Mackenna Consistorial</t>
+          <t>Activa Millaray Llanquihue</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>INMOBILIARIA PILARES S.A.</t>
+          <t>Inmobiliaria Plaza Chacabuco S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>41100</v>
+        <v>45588</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>28/11/2018</t>
+          <t>11/03/2019</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Condominio Santa Mónica</t>
+          <t>Edificio Mackenna Consistorial</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Mónica SpA</t>
+          <t>INMOBILIARIA PILARES S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>22000</v>
+        <v>41100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/08/2018</t>
+          <t>28/11/2018</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Edificios Exequiel Fernández</t>
+          <t>Condominio Santa Mónica</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
+          <t>Inmobiliaria Santa Mónica SpA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>62390</v>
+        <v>22000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/05/2018</t>
+          <t>24/08/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Departamental 1475</t>
+          <t>Edificios Exequiel Fernández</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
+          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>28120</v>
+        <v>62390</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/09/2017</t>
+          <t>23/05/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TORRES DE VICUÑA MACKENNA</t>
+          <t>Departamental 1475</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>17000</v>
+        <v>28120</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/07/2017</t>
+          <t>08/09/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>TORRES DE VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Vicente Tres Spa</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>24300</v>
+        <v>17000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>26/07/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Edificios Vista Bella Oriente</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vista Bella Ltda.</t>
+          <t>Inmobiliaria Don Vicente Tres Spa</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>28000</v>
+        <v>24300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Edificios Froilán Lagos</t>
+          <t>Edificios Vista Bella Oriente</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inmobiliaria PDV 70 Spa</t>
+          <t>Inmobiliaria Vista Bella Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>28942</v>
+        <v>28000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/05/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Edificios Froilán Lagos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria PDV 70 Spa</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>15100</v>
+        <v>28942</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>30/05/2016</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>16500</v>
+        <v>15100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>14/04/2016</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>24300</v>
+        <v>16500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11/03/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>15100</v>
+        <v>24300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/02/2016</t>
+          <t>11/03/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>24300</v>
+        <v>15100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>23/02/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Edificios Altavista Vicente Valdés</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>32216</v>
+        <v>24300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2747,21 +2747,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8055</v>
+        <v>32216</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Edificios Altavista Vicente Valdés</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>24300</v>
+        <v>8055</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>11/05/2015</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Edificio Tres Lagos</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tres Lagos SpA</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>18930</v>
+        <v>24300</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>07/05/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Edificio Tres Lagos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria Tres Lagos SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>24000</v>
+        <v>18930</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16/04/2015</t>
+          <t>07/05/2015</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/03/2015</t>
+          <t>16/04/2015</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>27/03/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,11 +3035,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10/03/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>24100</v>
+        <v>15100</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>10/03/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Colores del Abra</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic II S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>18861</v>
+        <v>24100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Colores del Abra</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Inmobiliaria Banvic II S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>24100</v>
+        <v>18861</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>23/01/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>8055</v>
+        <v>15100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>8055</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Edificio Vicuña Mackenna-Vespucio</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Inversiones El Mirador Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Clínica Cruz Blanca Santiago</t>
+          <t>Edificio Vicuña Mackenna-Vespucio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora CBS S.A.</t>
+          <t>Inversiones El Mirador Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>135406</v>
+        <v>30000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/06/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Clínica Cruz Blanca Santiago</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inmobiliaria y Constructora CBS S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>135406</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>10/06/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Condominio María Elena</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna Poniente</t>
+          <t>Condominio María Elena</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
+          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Condominio Vicuña Mackenna Poniente</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1231</v>
+        <v>100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>800</v>
+        <v>1231</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>02/12/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,12 +4360,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Panul</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>80000</v>
+        <v>26062</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Proyecto Inmobiliario El Panul</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>26062</v>
+        <v>80000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO EL PANUL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>PROYECTO INMOBILIARIO EL PANUL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>1750</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4811,11 +4811,11 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/07/2010</t>
+          <t>05/08/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>23/07/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>6000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Condominio San Luis (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>VAIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4600</v>
+        <v>22</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Condominio San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>VAIN S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>746318</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>746318</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,12 +5810,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,12 +5858,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,11 +6443,11 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>60000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6591,17 +6591,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,20 +6674,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,20 +6962,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>8400</v>
+        <v>500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>20/05/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>EDIFICIO DON VICENTE (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>20590</v>
+        <v>200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>22/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
+          <t>EDIFICIO DON VICENTE (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic I S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>26000</v>
+        <v>20590</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>22/02/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Inmobiliaria Banvic I S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>80</v>
+        <v>26000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,20 +7250,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,20 +7298,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,30 +7346,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,30 +7394,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,20 +7682,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,30 +7874,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,12 +7922,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5300</v>
+        <v>1</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,30 +8162,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>200</v>
+        <v>5300</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8223,17 +8223,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,20 +8354,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Inmobiliaria Maka S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>15188</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,20 +8402,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Inmobiliaria Maka S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>250</v>
+        <v>15188</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,20 +8498,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>25/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
+          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>25/07/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,20 +8594,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>1327</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8655,17 +8655,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,25 +8695,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8751,17 +8751,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,20 +8786,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,30 +8834,30 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,20 +9074,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,20 +9122,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,15 +9175,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,25 +9223,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,30 +9266,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,12 +9410,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,20 +9458,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>12628</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
+          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,15 +9511,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A..</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>12628</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
+          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional de Energia ENEX S.A..</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>26/05/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>07/05/2004</t>
+          <t>26/05/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>07/05/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>18289</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>29/01/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
+          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>29000</v>
+        <v>18289</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>16/12/2002</t>
+          <t>29/01/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>12/12/2002</t>
+          <t>16/12/2002</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>27/11/2002</t>
+          <t>12/12/2002</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>27/11/2002</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
+          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,25 +10039,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SHELL Chile S.A.C. e I.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,25 +10087,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>SHELL Chile S.A.C. e I.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>4000</v>
+        <v>740</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna</t>
+          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Arturo Garri Hammersley</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>17070</v>
+        <v>1000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Conjunto habitacional La Florida</t>
+          <t>Condominio Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Joaquín Luco Echeverría</t>
+          <t>Arturo Garri Hammersley</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>17070</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>24/01/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
+          <t>Conjunto habitacional La Florida</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Inmobiliaria VIMA S.A.</t>
+          <t>Joaquín Luco Echeverría</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>21/01/2002</t>
+          <t>24/01/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
+          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Inmobiliaria VIMA S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>21/01/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
+          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,30 +10466,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,30 +10514,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
+          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Proyecto Protege</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>21/06/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,30 +10600,30 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Asociación de Municipalidades Proyecto Protege</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1230</v>
+        <v>400</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>21/06/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Centro de Transferencia San Francisco</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,30 +10658,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>6400</v>
+        <v>1230</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,12 +10696,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Centro de Transferencia San Francisco</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -10711,25 +10711,25 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10767,17 +10767,17 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10815,17 +10815,17 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>02/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,15 +10855,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Giralda Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>20/06/2000</t>
+          <t>02/01/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
+          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Inmobiliaria La Giralda Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Casa Parque de La Florida</t>
+          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,15 +10951,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>18300</v>
+        <v>2000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>10/05/2000</t>
+          <t>20/06/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Villa Parque Jardín del Edén</t>
+          <t>Casa Parque de La Florida</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,15 +10999,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Inmobiliaria Jardín del Edén S.A.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1130</v>
+        <v>18300</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>10/05/2000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Jardín de la Florida</t>
+          <t>Villa Parque Jardín del Edén</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,15 +11047,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Inmobiliaria Jardín del Edén S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>7900</v>
+        <v>1130</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>20/04/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rojas Magallanes</t>
+          <t>Proyecto Habitacional Jardín de la Florida</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,25 +11095,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Napo Ltda.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10000</v>
+        <v>7900</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>15/03/1999</t>
+          <t>20/04/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Conjunto habitacional Rojas Magallanes IV</t>
+          <t>Conjunto Habitacional Rojas Magallanes</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11147,11 +11147,11 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>15/03/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
+          <t>Conjunto habitacional Rojas Magallanes IV</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,25 +11191,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Petroleum S.A.</t>
+          <t>Inmobiliaria Rio Napo Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>10/11/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Proyecto Mall Florida Center</t>
+          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,15 +11239,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING S.A.</t>
+          <t>Petroleum S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>108120</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>10/11/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
+          <t>Proyecto Mall Florida Center</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,15 +11287,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>600</v>
+        <v>108120</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>23/07/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
+          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,15 +11335,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>20/05/1998</t>
+          <t>23/07/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Hipermercado Santa Amalia</t>
+          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,25 +11383,25 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>D S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>30/03/1998</t>
+          <t>20/05/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Agua Potable La Florida</t>
+          <t>Hipermercado Santa Amalia</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,25 +11431,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>D S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>23800</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>30/03/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
+          <t>Planta de Agua Potable La Florida</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,15 +11479,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Carlos Rivas García Huidobro</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>35190</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>28/11/1997</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
+          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,15 +11527,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SOFOCAR</t>
+          <t>Carlos Rivas García Huidobro</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>550</v>
+        <v>35190</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>28/11/1997</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>The Home Depot Plaza Vespucio</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,15 +11575,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>The Home Depot Chile S.A.</t>
+          <t>SOFOCAR</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>12000</v>
+        <v>550</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>03/11/1997</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+          <t>The Home Depot Plaza Vespucio</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Inversiones Macalto S.A.</t>
+          <t>The Home Depot Chile S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>276000</v>
+        <v>12000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>23/10/1997</t>
+          <t>03/11/1997</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,43 +11656,91 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Inversiones Macalto S.A.</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>276000</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>23/10/1997</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F236" t="n">
+      <c r="F237" t="n">
         <v>300000</v>
       </c>
-      <c r="G236" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I236" t="inlineStr">
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J236" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>La Florida</t>
         </is>

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J237"/>
+  <dimension ref="A1:J238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VICUÑA MACKENNA III</t>
+          <t>Condominio Vive Barcelona</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Barcelona SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17500</v>
+        <v>39660</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/04/2023</t>
+          <t>04/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158947322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Residencial Walker Martínez N°880</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>José Antonio Santolaya Galarza</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/12/2022</t>
+          <t>03/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158947322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
+          <t>Proyecto Residencial Walker Martínez N°880</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>José Antonio Santolaya Galarza</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>48000</v>
+        <v>35000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>30/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación Ampliación Mall Plaza Vespucio</t>
+          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>241609</v>
+        <v>48000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vicente Valdés I y II</t>
+          <t>Modificación Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VICENTE VALDES SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>51183</v>
+        <v>241609</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Ulmo</t>
+          <t>Vicente Valdés I y II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rentas El Ulmo SpA.</t>
+          <t>VICENTE VALDES SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>34200</v>
+        <v>51183</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 88</t>
+          <t>Proyecto Inmobiliario El Ulmo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pilares S.A.</t>
+          <t>Rentas El Ulmo SpA.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>53541</v>
+        <v>34200</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>03/09/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Departamental - Froilán Roa</t>
+          <t>Edificio Vicente Valdés 88</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>40035</v>
+        <v>53541</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 86</t>
+          <t>Departamental - Froilán Roa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>45000</v>
+        <v>40035</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11/08/2021</t>
+          <t>13/08/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Roberto Eduardo González Fourcade</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/08/2021</t>
+          <t>11/08/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Edificio Gerónimo de Alderete</t>
+          <t>Edificio Vicente Valdés 86</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme X SpA</t>
+          <t>Roberto Eduardo González Fourcade</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>02/08/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Gerónimo de Alderete</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Inmobiliaria Terrafirme X SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edificio Américo Vespucio</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicuna Mackenna SPA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>41000</v>
+        <v>48000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Edificio Chimbote</t>
+          <t>Edificio Américo Vespucio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
+          <t>Inmobiliaria Vicuna Mackenna SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>30490</v>
+        <v>41000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05/01/2021</t>
+          <t>05/02/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Avenida Vicuña Mackenna 11.115</t>
+          <t>Edificio Chimbote</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria El descubridor S.A.</t>
+          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>15800</v>
+        <v>30490</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/09/2020</t>
+          <t>05/01/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Edificio Froilán Roa</t>
+          <t>Avenida Vicuña Mackenna 11.115</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Froilán Roa SpA</t>
+          <t>Inmobiliaria El descubridor S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>55000</v>
+        <v>15800</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>08/09/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Froilán Roa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>48000</v>
+        <v>55000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul Uno</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria Mirador Azul Uno SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>32645</v>
+        <v>48000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nueva Uno</t>
+          <t>Edificio Mirador Azul Uno</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Nueva Uno SpA</t>
+          <t>Inmobiliaria Mirador Azul Uno SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>32000</v>
+        <v>32645</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/05/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Condominio Santa Inés</t>
+          <t>Nueva Uno</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Nueva Uno SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>06/05/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Condominio Santa Inés</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>25/02/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Edificio Activa Vicuña</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria Alto Hipodromo S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>33944</v>
+        <v>25000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificio Activa Vicuña</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria Alto Hipodromo S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>52900</v>
+        <v>33944</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27/11/2019</t>
+          <t>09/12/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Edificios La Concepción</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria la marina S.A.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>46838</v>
+        <v>52900</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11/2019</t>
+          <t>27/11/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificios La Concepción</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria la marina S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>52900</v>
+        <v>46838</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/11/2019</t>
+          <t>20/11/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modificación Edificio Aliwen</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>28644</v>
+        <v>52900</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07/11/2019</t>
+          <t>19/11/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Modificación Edificio Aliwen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Simonetti Inmobiliaria S.A.</t>
+          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15000</v>
+        <v>28644</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/10/2019</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Departamental 3</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ameris UPC Departamental Tres SpA</t>
+          <t>Simonetti Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>58457</v>
+        <v>15000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>30/10/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación Mall Plaza Vespucio</t>
+          <t>Departamental 3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Ameris UPC Departamental Tres SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>170000</v>
+        <v>58457</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14/06/2019</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Florida Uno SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>47036</v>
+        <v>170000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/05/2019</t>
+          <t>14/06/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Arrendamientos Mirador SpA</t>
+          <t>Inmobiliaria La Florida Uno SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>71863</v>
+        <v>47036</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/05/2019</t>
+          <t>08/05/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Edificio Departamental 0891</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EUROCORP DOS S.A.</t>
+          <t>Arrendamientos Mirador SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>65844</v>
+        <v>71863</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/05/2019</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Edificio Quillayes La Florida</t>
+          <t>Edificio Departamental 0891</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Morros S.A.</t>
+          <t>EUROCORP DOS S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>48320</v>
+        <v>65844</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>06/05/2019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Activa Millaray Llanquihue</t>
+          <t>Edificio Quillayes La Florida</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inmobiliaria Plaza Chacabuco S.A</t>
+          <t>Inmobiliaria Los Morros S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>45588</v>
+        <v>48320</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11/03/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Edificio Mackenna Consistorial</t>
+          <t>Activa Millaray Llanquihue</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>INMOBILIARIA PILARES S.A.</t>
+          <t>Inmobiliaria Plaza Chacabuco S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>41100</v>
+        <v>45588</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>28/11/2018</t>
+          <t>11/03/2019</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Condominio Santa Mónica</t>
+          <t>Edificio Mackenna Consistorial</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Mónica SpA</t>
+          <t>INMOBILIARIA PILARES S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>22000</v>
+        <v>41100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/08/2018</t>
+          <t>28/11/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Edificios Exequiel Fernández</t>
+          <t>Condominio Santa Mónica</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
+          <t>Inmobiliaria Santa Mónica SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>62390</v>
+        <v>22000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/05/2018</t>
+          <t>24/08/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Departamental 1475</t>
+          <t>Edificios Exequiel Fernández</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
+          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>28120</v>
+        <v>62390</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/09/2017</t>
+          <t>23/05/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TORRES DE VICUÑA MACKENNA</t>
+          <t>Departamental 1475</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>17000</v>
+        <v>28120</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>26/07/2017</t>
+          <t>08/09/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>TORRES DE VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Vicente Tres Spa</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>24300</v>
+        <v>17000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>26/07/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Edificios Vista Bella Oriente</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vista Bella Ltda.</t>
+          <t>Inmobiliaria Don Vicente Tres Spa</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>28000</v>
+        <v>24300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Edificios Froilán Lagos</t>
+          <t>Edificios Vista Bella Oriente</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Inmobiliaria PDV 70 Spa</t>
+          <t>Inmobiliaria Vista Bella Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>28942</v>
+        <v>28000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/05/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Edificios Froilán Lagos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria PDV 70 Spa</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>15100</v>
+        <v>28942</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>30/05/2016</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>16500</v>
+        <v>15100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>14/04/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>24300</v>
+        <v>16500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11/03/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>15100</v>
+        <v>24300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/02/2016</t>
+          <t>11/03/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>24300</v>
+        <v>15100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>23/02/2016</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Edificios Altavista Vicente Valdés</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>32216</v>
+        <v>24300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>8055</v>
+        <v>32216</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Edificios Altavista Vicente Valdés</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>24300</v>
+        <v>8055</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>11/05/2015</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Edificio Tres Lagos</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tres Lagos SpA</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>18930</v>
+        <v>24300</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>07/05/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Edificio Tres Lagos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria Tres Lagos SpA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>24000</v>
+        <v>18930</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16/04/2015</t>
+          <t>07/05/2015</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>27/03/2015</t>
+          <t>16/04/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>27/03/2015</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/03/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>24100</v>
+        <v>15100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>10/03/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Colores del Abra</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic II S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>18861</v>
+        <v>24100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Colores del Abra</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Inmobiliaria Banvic II S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>24100</v>
+        <v>18861</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>23/01/2015</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>8055</v>
+        <v>15100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>8055</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Edificio Vicuña Mackenna-Vespucio</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Inversiones El Mirador Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Clínica Cruz Blanca Santiago</t>
+          <t>Edificio Vicuña Mackenna-Vespucio</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora CBS S.A.</t>
+          <t>Inversiones El Mirador Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>135406</v>
+        <v>30000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/06/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Clínica Cruz Blanca Santiago</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inmobiliaria y Constructora CBS S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>135406</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>10/06/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Condominio María Elena</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna Poniente</t>
+          <t>Condominio María Elena</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
+          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Condominio Vicuña Mackenna Poniente</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1231</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>800</v>
+        <v>1231</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>02/12/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>26062</v>
+        <v>800</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Panul</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>80000</v>
+        <v>26062</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,26 +4456,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Proyecto Inmobiliario El Panul</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO EL PANUL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>PROYECTO INMOBILIARIO EL PANUL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>1750</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4859,11 +4859,11 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/07/2010</t>
+          <t>05/08/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>23/07/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>6000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Condominio San Luis (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>VAIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4600</v>
+        <v>22</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Condominio San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>VAIN S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>746318</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>746318</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,12 +5858,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,17 +5871,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,12 +5906,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,11 +6491,11 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>60000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6639,17 +6639,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,20 +6722,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,20 +7010,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>8400</v>
+        <v>500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>20/05/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>EDIFICIO DON VICENTE (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>20590</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>22/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
+          <t>EDIFICIO DON VICENTE (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic I S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>26000</v>
+        <v>20590</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>22/02/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,30 +7202,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Inmobiliaria Banvic I S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>80</v>
+        <v>26000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,20 +7298,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,20 +7346,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,30 +7394,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,30 +7442,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,20 +7730,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,30 +7922,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,12 +7970,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>5300</v>
+        <v>1</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,30 +8210,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>5300</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8271,17 +8271,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,20 +8402,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Inmobiliaria Maka S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>15188</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,20 +8450,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Inmobiliaria Maka S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>250</v>
+        <v>15188</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,20 +8546,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>25/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
+          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>25/07/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,20 +8642,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>1327</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8703,17 +8703,17 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,25 +8743,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8799,17 +8799,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,20 +8834,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,30 +8882,30 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,20 +9122,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,20 +9170,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,15 +9223,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,25 +9271,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,30 +9314,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9375,17 +9375,17 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,12 +9458,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,20 +9506,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>12628</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
+          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,15 +9559,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A..</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>12628</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
+          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional de Energia ENEX S.A..</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>26/05/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>07/05/2004</t>
+          <t>26/05/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>07/05/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>18289</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>29/01/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
+          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>29000</v>
+        <v>18289</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>16/12/2002</t>
+          <t>29/01/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>12/12/2002</t>
+          <t>16/12/2002</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>27/11/2002</t>
+          <t>12/12/2002</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>27/11/2002</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
+          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,25 +10087,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SHELL Chile S.A.C. e I.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,25 +10135,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>SHELL Chile S.A.C. e I.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>4000</v>
+        <v>740</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna</t>
+          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Arturo Garri Hammersley</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>17070</v>
+        <v>1000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Conjunto habitacional La Florida</t>
+          <t>Condominio Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Joaquín Luco Echeverría</t>
+          <t>Arturo Garri Hammersley</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>17070</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>24/01/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
+          <t>Conjunto habitacional La Florida</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Inmobiliaria VIMA S.A.</t>
+          <t>Joaquín Luco Echeverría</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>21/01/2002</t>
+          <t>24/01/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
+          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Inmobiliaria VIMA S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>21/01/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
+          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,30 +10514,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,30 +10562,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
+          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,15 +10615,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Proyecto Protege</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>21/06/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,30 +10648,30 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Asociación de Municipalidades Proyecto Protege</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1230</v>
+        <v>400</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>21/06/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Centro de Transferencia San Francisco</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,30 +10706,30 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>6400</v>
+        <v>1230</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,12 +10744,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Centro de Transferencia San Francisco</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10759,25 +10759,25 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10815,17 +10815,17 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10863,17 +10863,17 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>02/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,15 +10903,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Giralda Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>20/06/2000</t>
+          <t>02/01/2001</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
+          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Inmobiliaria La Giralda Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Casa Parque de La Florida</t>
+          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,15 +10999,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>18300</v>
+        <v>2000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>10/05/2000</t>
+          <t>20/06/2000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Villa Parque Jardín del Edén</t>
+          <t>Casa Parque de La Florida</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,15 +11047,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Inmobiliaria Jardín del Edén S.A.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1130</v>
+        <v>18300</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>10/05/2000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Jardín de la Florida</t>
+          <t>Villa Parque Jardín del Edén</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,15 +11095,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Inmobiliaria Jardín del Edén S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>7900</v>
+        <v>1130</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>20/04/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rojas Magallanes</t>
+          <t>Proyecto Habitacional Jardín de la Florida</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,25 +11143,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Napo Ltda.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>10000</v>
+        <v>7900</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>15/03/1999</t>
+          <t>20/04/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Conjunto habitacional Rojas Magallanes IV</t>
+          <t>Conjunto Habitacional Rojas Magallanes</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11195,11 +11195,11 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>15/03/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
+          <t>Conjunto habitacional Rojas Magallanes IV</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,25 +11239,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Petroleum S.A.</t>
+          <t>Inmobiliaria Rio Napo Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>10/11/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Proyecto Mall Florida Center</t>
+          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,15 +11287,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING S.A.</t>
+          <t>Petroleum S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>108120</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>10/11/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
+          <t>Proyecto Mall Florida Center</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,15 +11335,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>600</v>
+        <v>108120</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>23/07/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
+          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,15 +11383,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>20/05/1998</t>
+          <t>23/07/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Hipermercado Santa Amalia</t>
+          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,25 +11431,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>D S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>30/03/1998</t>
+          <t>20/05/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta de Agua Potable La Florida</t>
+          <t>Hipermercado Santa Amalia</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,25 +11479,25 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>D S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>23800</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>30/03/1998</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
+          <t>Planta de Agua Potable La Florida</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,15 +11527,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Carlos Rivas García Huidobro</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>35190</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>28/11/1997</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
+          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,15 +11575,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SOFOCAR</t>
+          <t>Carlos Rivas García Huidobro</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>550</v>
+        <v>35190</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>28/11/1997</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>The Home Depot Plaza Vespucio</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>The Home Depot Chile S.A.</t>
+          <t>SOFOCAR</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>12000</v>
+        <v>550</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>03/11/1997</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+          <t>The Home Depot Plaza Vespucio</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Inversiones Macalto S.A.</t>
+          <t>The Home Depot Chile S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>276000</v>
+        <v>12000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>23/10/1997</t>
+          <t>03/11/1997</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,43 +11704,91 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Inversiones Macalto S.A.</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>276000</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>23/10/1997</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F237" t="n">
+      <c r="F238" t="n">
         <v>300000</v>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr">
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J237" t="inlineStr">
+      <c r="J238" t="inlineStr">
         <is>
           <t>La Florida</t>
         </is>

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J238"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Condominio Vive Barcelona</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria Barcelona SPA</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39660</v>
+        <v>17500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/04/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159002955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VICUÑA MACKENNA III</t>
+          <t>Condominio Vive Barcelona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Barcelona SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17500</v>
+        <v>39660</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/04/2023</t>
+          <t>04/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158947322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto Residencial Walker Martínez N°880</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>José Antonio Santolaya Galarza</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/12/2022</t>
+          <t>03/04/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158947322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
+          <t>Proyecto Residencial Walker Martínez N°880</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>José Antonio Santolaya Galarza</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>48000</v>
+        <v>35000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>30/12/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación Ampliación Mall Plaza Vespucio</t>
+          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>241609</v>
+        <v>48000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vicente Valdés I y II</t>
+          <t>Modificación Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VICENTE VALDES SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>51183</v>
+        <v>241609</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Ulmo</t>
+          <t>Vicente Valdés I y II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rentas El Ulmo SpA.</t>
+          <t>VICENTE VALDES SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>34200</v>
+        <v>51183</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 88</t>
+          <t>Proyecto Inmobiliario El Ulmo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pilares S.A.</t>
+          <t>Rentas El Ulmo SpA.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>53541</v>
+        <v>34200</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>03/09/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Departamental - Froilán Roa</t>
+          <t>Edificio Vicente Valdés 88</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40035</v>
+        <v>53541</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 86</t>
+          <t>Departamental - Froilán Roa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>45000</v>
+        <v>40035</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11/08/2021</t>
+          <t>13/08/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Roberto Eduardo González Fourcade</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>02/08/2021</t>
+          <t>11/08/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Edificio Gerónimo de Alderete</t>
+          <t>Edificio Vicente Valdés 86</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme X SpA</t>
+          <t>Roberto Eduardo González Fourcade</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>02/08/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Gerónimo de Alderete</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Inmobiliaria Terrafirme X SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Edificio Américo Vespucio</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicuna Mackenna SPA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>41000</v>
+        <v>48000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edificio Chimbote</t>
+          <t>Edificio Américo Vespucio</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
+          <t>Inmobiliaria Vicuna Mackenna SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>30490</v>
+        <v>41000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05/01/2021</t>
+          <t>05/02/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Avenida Vicuña Mackenna 11.115</t>
+          <t>Edificio Chimbote</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria El descubridor S.A.</t>
+          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>15800</v>
+        <v>30490</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/09/2020</t>
+          <t>05/01/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Edificio Froilán Roa</t>
+          <t>Avenida Vicuña Mackenna 11.115</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Froilán Roa SpA</t>
+          <t>Inmobiliaria El descubridor S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>55000</v>
+        <v>15800</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>08/09/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Froilán Roa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>48000</v>
+        <v>55000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul Uno</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Mirador Azul Uno SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>32645</v>
+        <v>48000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nueva Uno</t>
+          <t>Edificio Mirador Azul Uno</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Nueva Uno SpA</t>
+          <t>Inmobiliaria Mirador Azul Uno SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>32000</v>
+        <v>32645</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/05/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Condominio Santa Inés</t>
+          <t>Nueva Uno</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Nueva Uno SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>06/05/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Condominio Santa Inés</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>25/02/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Edificio Activa Vicuña</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria Alto Hipodromo S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>33944</v>
+        <v>25000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificio Activa Vicuña</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria Alto Hipodromo S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>52900</v>
+        <v>33944</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>27/11/2019</t>
+          <t>09/12/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Edificios La Concepción</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria la marina S.A.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>46838</v>
+        <v>52900</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11/2019</t>
+          <t>27/11/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificios La Concepción</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria la marina S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>52900</v>
+        <v>46838</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/11/2019</t>
+          <t>20/11/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modificación Edificio Aliwen</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>28644</v>
+        <v>52900</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/11/2019</t>
+          <t>19/11/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Modificación Edificio Aliwen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Simonetti Inmobiliaria S.A.</t>
+          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15000</v>
+        <v>28644</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/10/2019</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Departamental 3</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ameris UPC Departamental Tres SpA</t>
+          <t>Simonetti Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>58457</v>
+        <v>15000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>30/10/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación Mall Plaza Vespucio</t>
+          <t>Departamental 3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Ameris UPC Departamental Tres SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>170000</v>
+        <v>58457</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14/06/2019</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Florida Uno SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>47036</v>
+        <v>170000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/05/2019</t>
+          <t>14/06/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Arrendamientos Mirador SpA</t>
+          <t>Inmobiliaria La Florida Uno SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>71863</v>
+        <v>47036</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/05/2019</t>
+          <t>08/05/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Edificio Departamental 0891</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EUROCORP DOS S.A.</t>
+          <t>Arrendamientos Mirador SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>65844</v>
+        <v>71863</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/05/2019</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Edificio Quillayes La Florida</t>
+          <t>Edificio Departamental 0891</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Morros S.A.</t>
+          <t>EUROCORP DOS S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>48320</v>
+        <v>65844</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>06/05/2019</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Activa Millaray Llanquihue</t>
+          <t>Edificio Quillayes La Florida</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inmobiliaria Plaza Chacabuco S.A</t>
+          <t>Inmobiliaria Los Morros S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>45588</v>
+        <v>48320</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11/03/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Edificio Mackenna Consistorial</t>
+          <t>Activa Millaray Llanquihue</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>INMOBILIARIA PILARES S.A.</t>
+          <t>Inmobiliaria Plaza Chacabuco S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>41100</v>
+        <v>45588</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>28/11/2018</t>
+          <t>11/03/2019</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Condominio Santa Mónica</t>
+          <t>Edificio Mackenna Consistorial</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Mónica SpA</t>
+          <t>INMOBILIARIA PILARES S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>22000</v>
+        <v>41100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/08/2018</t>
+          <t>28/11/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Edificios Exequiel Fernández</t>
+          <t>Condominio Santa Mónica</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
+          <t>Inmobiliaria Santa Mónica SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>62390</v>
+        <v>22000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/05/2018</t>
+          <t>24/08/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Departamental 1475</t>
+          <t>Edificios Exequiel Fernández</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
+          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>28120</v>
+        <v>62390</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/09/2017</t>
+          <t>23/05/2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TORRES DE VICUÑA MACKENNA</t>
+          <t>Departamental 1475</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>17000</v>
+        <v>28120</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>26/07/2017</t>
+          <t>08/09/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>TORRES DE VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Vicente Tres Spa</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>24300</v>
+        <v>17000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>26/07/2017</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Edificios Vista Bella Oriente</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vista Bella Ltda.</t>
+          <t>Inmobiliaria Don Vicente Tres Spa</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>28000</v>
+        <v>24300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Edificios Froilán Lagos</t>
+          <t>Edificios Vista Bella Oriente</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Inmobiliaria PDV 70 Spa</t>
+          <t>Inmobiliaria Vista Bella Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>28942</v>
+        <v>28000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/05/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Edificios Froilán Lagos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria PDV 70 Spa</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>15100</v>
+        <v>28942</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>30/05/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>16500</v>
+        <v>15100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>14/04/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>24300</v>
+        <v>16500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/03/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>15100</v>
+        <v>24300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/02/2016</t>
+          <t>11/03/2016</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>24300</v>
+        <v>15100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>23/02/2016</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Edificios Altavista Vicente Valdés</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>32216</v>
+        <v>24300</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>8055</v>
+        <v>32216</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Edificios Altavista Vicente Valdés</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>24300</v>
+        <v>8055</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>11/05/2015</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Edificio Tres Lagos</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tres Lagos SpA</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>18930</v>
+        <v>24300</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>07/05/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Edificio Tres Lagos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria Tres Lagos SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24000</v>
+        <v>18930</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16/04/2015</t>
+          <t>07/05/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/03/2015</t>
+          <t>16/04/2015</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>27/03/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,11 +3131,11 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/03/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>24100</v>
+        <v>15100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>10/03/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Colores del Abra</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic II S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>18861</v>
+        <v>24100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Colores del Abra</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Inmobiliaria Banvic II S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>24100</v>
+        <v>18861</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>23/01/2015</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8055</v>
+        <v>15100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>8055</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Edificio Vicuña Mackenna-Vespucio</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Inversiones El Mirador Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Clínica Cruz Blanca Santiago</t>
+          <t>Edificio Vicuña Mackenna-Vespucio</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora CBS S.A.</t>
+          <t>Inversiones El Mirador Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>135406</v>
+        <v>30000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/06/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Clínica Cruz Blanca Santiago</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inmobiliaria y Constructora CBS S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>135406</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>10/06/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Condominio María Elena</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna Poniente</t>
+          <t>Condominio María Elena</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
+          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Condominio Vicuña Mackenna Poniente</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1231</v>
+        <v>100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>800</v>
+        <v>1231</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>02/12/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>26062</v>
+        <v>800</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Panul</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>80000</v>
+        <v>26062</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,26 +4504,26 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Proyecto Inmobiliario El Panul</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO EL PANUL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>PROYECTO INMOBILIARIO EL PANUL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>1750</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4907,11 +4907,11 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/07/2010</t>
+          <t>05/08/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>23/07/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>6000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Condominio San Luis (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>VAIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4600</v>
+        <v>22</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Condominio San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>VAIN S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>746318</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>746318</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,12 +5906,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,12 +5954,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,20 +6386,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,11 +6539,11 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>60000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,20 +6770,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,20 +7058,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>8400</v>
+        <v>500</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>20/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>20/05/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>EDIFICIO DON VICENTE (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20590</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>22/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
+          <t>EDIFICIO DON VICENTE (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic I S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>26000</v>
+        <v>20590</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>22/02/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,30 +7250,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Inmobiliaria Banvic I S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>80</v>
+        <v>26000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,20 +7346,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,20 +7394,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,30 +7442,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,20 +7778,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,30 +7970,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,12 +8018,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5300</v>
+        <v>1</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,30 +8258,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>5300</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8319,17 +8319,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,20 +8450,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Inmobiliaria Maka S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>15188</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,20 +8498,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Inmobiliaria Maka S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>250</v>
+        <v>15188</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,20 +8594,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>25/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
+          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>25/07/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,20 +8690,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>1327</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8751,17 +8751,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,25 +8791,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8847,17 +8847,17 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,20 +8882,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,30 +8930,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,20 +9170,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,20 +9218,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,15 +9271,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,25 +9319,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,30 +9362,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9423,17 +9423,17 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,12 +9506,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,20 +9554,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>12628</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
+          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,15 +9607,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A..</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>12628</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
+          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional de Energia ENEX S.A..</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>26/05/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>07/05/2004</t>
+          <t>26/05/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>07/05/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>18289</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>29/01/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
+          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>29000</v>
+        <v>18289</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>16/12/2002</t>
+          <t>29/01/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>12/12/2002</t>
+          <t>16/12/2002</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>27/11/2002</t>
+          <t>12/12/2002</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,11 +9995,11 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>27/11/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
+          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,25 +10135,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SHELL Chile S.A.C. e I.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,25 +10183,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>SHELL Chile S.A.C. e I.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>4000</v>
+        <v>740</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna</t>
+          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Arturo Garri Hammersley</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>17070</v>
+        <v>1000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Conjunto habitacional La Florida</t>
+          <t>Condominio Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Joaquín Luco Echeverría</t>
+          <t>Arturo Garri Hammersley</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>17070</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>24/01/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
+          <t>Conjunto habitacional La Florida</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Inmobiliaria VIMA S.A.</t>
+          <t>Joaquín Luco Echeverría</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>21/01/2002</t>
+          <t>24/01/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
+          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Inmobiliaria VIMA S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>21/01/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
+          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,30 +10562,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,30 +10610,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
+          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,15 +10663,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Proyecto Protege</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>21/06/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,30 +10696,30 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Asociación de Municipalidades Proyecto Protege</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1230</v>
+        <v>400</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>21/06/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Centro de Transferencia San Francisco</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,30 +10754,30 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>6400</v>
+        <v>1230</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,12 +10792,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Centro de Transferencia San Francisco</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -10807,25 +10807,25 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10863,17 +10863,17 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10911,17 +10911,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>02/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,15 +10951,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Giralda Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>20/06/2000</t>
+          <t>02/01/2001</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
+          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Inmobiliaria La Giralda Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Casa Parque de La Florida</t>
+          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,15 +11047,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>18300</v>
+        <v>2000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>10/05/2000</t>
+          <t>20/06/2000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Villa Parque Jardín del Edén</t>
+          <t>Casa Parque de La Florida</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,15 +11095,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Inmobiliaria Jardín del Edén S.A.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1130</v>
+        <v>18300</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>10/05/2000</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Jardín de la Florida</t>
+          <t>Villa Parque Jardín del Edén</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,15 +11143,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Inmobiliaria Jardín del Edén S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>7900</v>
+        <v>1130</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>20/04/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rojas Magallanes</t>
+          <t>Proyecto Habitacional Jardín de la Florida</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,25 +11191,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Napo Ltda.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>7900</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>15/03/1999</t>
+          <t>20/04/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Conjunto habitacional Rojas Magallanes IV</t>
+          <t>Conjunto Habitacional Rojas Magallanes</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,11 +11243,11 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>15/03/1999</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
+          <t>Conjunto habitacional Rojas Magallanes IV</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,25 +11287,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Petroleum S.A.</t>
+          <t>Inmobiliaria Rio Napo Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>10/11/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Proyecto Mall Florida Center</t>
+          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,15 +11335,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING S.A.</t>
+          <t>Petroleum S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>108120</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>10/11/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
+          <t>Proyecto Mall Florida Center</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,15 +11383,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>600</v>
+        <v>108120</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>23/07/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
+          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,15 +11431,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>20/05/1998</t>
+          <t>23/07/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Hipermercado Santa Amalia</t>
+          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,25 +11479,25 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>D S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>30/03/1998</t>
+          <t>20/05/1998</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Agua Potable La Florida</t>
+          <t>Hipermercado Santa Amalia</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,25 +11527,25 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>D S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>23800</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>30/03/1998</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
+          <t>Planta de Agua Potable La Florida</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,15 +11575,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Carlos Rivas García Huidobro</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>35190</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>28/11/1997</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
+          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SOFOCAR</t>
+          <t>Carlos Rivas García Huidobro</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>550</v>
+        <v>35190</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>28/11/1997</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>The Home Depot Plaza Vespucio</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>The Home Depot Chile S.A.</t>
+          <t>SOFOCAR</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>12000</v>
+        <v>550</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>03/11/1997</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+          <t>The Home Depot Plaza Vespucio</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,15 +11719,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Inversiones Macalto S.A.</t>
+          <t>The Home Depot Chile S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>276000</v>
+        <v>12000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>23/10/1997</t>
+          <t>03/11/1997</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,43 +11752,91 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Inversiones Macalto S.A.</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>276000</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>23/10/1997</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F238" t="n">
+      <c r="F239" t="n">
         <v>300000</v>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I238" t="inlineStr">
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J238" t="inlineStr">
+      <c r="J239" t="inlineStr">
         <is>
           <t>La Florida</t>
         </is>

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VICUÑA MACKENNA III</t>
+          <t>Condominio Vive Barcelona</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Barcelona SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17500</v>
+        <v>39660</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/04/2023</t>
+          <t>11/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159002955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Condominio Vive Barcelona</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria Barcelona SPA</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>39660</v>
+        <v>17500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>04/04/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159002955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Condominio Vive Barcelona</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria Barcelona SPA</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39660</v>
+        <v>17500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/04/2023</t>
+          <t>13/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159002955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VICUÑA MACKENNA III</t>
+          <t>Condominio Vive Barcelona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Barcelona SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17500</v>
+        <v>39660</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/04/2023</t>
+          <t>11/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159002955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>José Antonio Santolaya Galarza</t>
+          <t>Inmobiliaria Walker Martínez 880 SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VICUÑA MACKENNA III</t>
+          <t>Nueva Subestación Seccionadora Baja Cordillera</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Empresa Eléctrica Cordillera SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/04/2023</t>
+          <t>19/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159002955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159058009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Condominio Vive Barcelona</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria Barcelona SPA</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>39660</v>
+        <v>17500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11/04/2023</t>
+          <t>13/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159002955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VICUÑA MACKENNA III</t>
+          <t>Condominio Vive Barcelona</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Barcelona SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17500</v>
+        <v>39660</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/04/2023</t>
+          <t>11/04/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158947322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Residencial Walker Martínez N°880</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inmobiliaria Walker Martínez 880 SpA.</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30/12/2022</t>
+          <t>03/04/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158947322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
+          <t>Proyecto Residencial Walker Martínez N°880</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Inmobiliaria Walker Martínez 880 SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>48000</v>
+        <v>35000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>30/12/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación Ampliación Mall Plaza Vespucio</t>
+          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>241609</v>
+        <v>48000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vicente Valdés I y II</t>
+          <t>Modificación Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VICENTE VALDES SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>51183</v>
+        <v>241609</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Ulmo</t>
+          <t>Vicente Valdés I y II</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rentas El Ulmo SpA.</t>
+          <t>VICENTE VALDES SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>34200</v>
+        <v>51183</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 88</t>
+          <t>Proyecto Inmobiliario El Ulmo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pilares S.A.</t>
+          <t>Rentas El Ulmo SpA.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>53541</v>
+        <v>34200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>03/09/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Departamental - Froilán Roa</t>
+          <t>Edificio Vicente Valdés 88</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>40035</v>
+        <v>53541</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 86</t>
+          <t>Departamental - Froilán Roa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>45000</v>
+        <v>40035</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11/08/2021</t>
+          <t>13/08/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Roberto Eduardo González Fourcade</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>02/08/2021</t>
+          <t>11/08/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edificio Gerónimo de Alderete</t>
+          <t>Edificio Vicente Valdés 86</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme X SpA</t>
+          <t>Roberto Eduardo González Fourcade</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>02/08/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Gerónimo de Alderete</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Inmobiliaria Terrafirme X SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edificio Américo Vespucio</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicuna Mackenna SPA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>41000</v>
+        <v>48000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Edificio Chimbote</t>
+          <t>Edificio Américo Vespucio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
+          <t>Inmobiliaria Vicuna Mackenna SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30490</v>
+        <v>41000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/01/2021</t>
+          <t>05/02/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Avenida Vicuña Mackenna 11.115</t>
+          <t>Edificio Chimbote</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria El descubridor S.A.</t>
+          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15800</v>
+        <v>30490</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/09/2020</t>
+          <t>05/01/2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Edificio Froilán Roa</t>
+          <t>Avenida Vicuña Mackenna 11.115</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Froilán Roa SpA</t>
+          <t>Inmobiliaria El descubridor S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>55000</v>
+        <v>15800</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>08/09/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Froilán Roa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>48000</v>
+        <v>55000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul Uno</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Mirador Azul Uno SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>32645</v>
+        <v>48000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nueva Uno</t>
+          <t>Edificio Mirador Azul Uno</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria Nueva Uno SpA</t>
+          <t>Inmobiliaria Mirador Azul Uno SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>32000</v>
+        <v>32645</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/05/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Condominio Santa Inés</t>
+          <t>Nueva Uno</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Nueva Uno SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>06/05/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Condominio Santa Inés</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>25/02/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Edificio Activa Vicuña</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria Alto Hipodromo S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>33944</v>
+        <v>25000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificio Activa Vicuña</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria Alto Hipodromo S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>52900</v>
+        <v>33944</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>27/11/2019</t>
+          <t>09/12/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Edificios La Concepción</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria la marina S.A.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>46838</v>
+        <v>52900</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/11/2019</t>
+          <t>27/11/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificios La Concepción</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria la marina S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>52900</v>
+        <v>46838</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/11/2019</t>
+          <t>20/11/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación Edificio Aliwen</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>28644</v>
+        <v>52900</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/11/2019</t>
+          <t>19/11/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Modificación Edificio Aliwen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Simonetti Inmobiliaria S.A.</t>
+          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15000</v>
+        <v>28644</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/10/2019</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Departamental 3</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ameris UPC Departamental Tres SpA</t>
+          <t>Simonetti Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>58457</v>
+        <v>15000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>30/10/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación Mall Plaza Vespucio</t>
+          <t>Departamental 3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Ameris UPC Departamental Tres SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>170000</v>
+        <v>58457</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14/06/2019</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Florida Uno SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>47036</v>
+        <v>170000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/05/2019</t>
+          <t>14/06/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Arrendamientos Mirador SpA</t>
+          <t>Inmobiliaria La Florida Uno SPA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>71863</v>
+        <v>47036</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07/05/2019</t>
+          <t>08/05/2019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Edificio Departamental 0891</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EUROCORP DOS S.A.</t>
+          <t>Arrendamientos Mirador SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>65844</v>
+        <v>71863</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/05/2019</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Edificio Quillayes La Florida</t>
+          <t>Edificio Departamental 0891</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Morros S.A.</t>
+          <t>EUROCORP DOS S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>48320</v>
+        <v>65844</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>06/05/2019</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Activa Millaray Llanquihue</t>
+          <t>Edificio Quillayes La Florida</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inmobiliaria Plaza Chacabuco S.A</t>
+          <t>Inmobiliaria Los Morros S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>45588</v>
+        <v>48320</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11/03/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Edificio Mackenna Consistorial</t>
+          <t>Activa Millaray Llanquihue</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>INMOBILIARIA PILARES S.A.</t>
+          <t>Inmobiliaria Plaza Chacabuco S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>41100</v>
+        <v>45588</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>28/11/2018</t>
+          <t>11/03/2019</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Condominio Santa Mónica</t>
+          <t>Edificio Mackenna Consistorial</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Mónica SpA</t>
+          <t>INMOBILIARIA PILARES S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>22000</v>
+        <v>41100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>24/08/2018</t>
+          <t>28/11/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Edificios Exequiel Fernández</t>
+          <t>Condominio Santa Mónica</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
+          <t>Inmobiliaria Santa Mónica SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>62390</v>
+        <v>22000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/05/2018</t>
+          <t>24/08/2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Departamental 1475</t>
+          <t>Edificios Exequiel Fernández</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
+          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>28120</v>
+        <v>62390</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/09/2017</t>
+          <t>23/05/2018</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TORRES DE VICUÑA MACKENNA</t>
+          <t>Departamental 1475</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>17000</v>
+        <v>28120</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26/07/2017</t>
+          <t>08/09/2017</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>TORRES DE VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Vicente Tres Spa</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>24300</v>
+        <v>17000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>26/07/2017</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Edificios Vista Bella Oriente</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vista Bella Ltda.</t>
+          <t>Inmobiliaria Don Vicente Tres Spa</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>28000</v>
+        <v>24300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Edificios Froilán Lagos</t>
+          <t>Edificios Vista Bella Oriente</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Inmobiliaria PDV 70 Spa</t>
+          <t>Inmobiliaria Vista Bella Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>28942</v>
+        <v>28000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/05/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Edificios Froilán Lagos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria PDV 70 Spa</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>15100</v>
+        <v>28942</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>30/05/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>16500</v>
+        <v>15100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>14/04/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>24300</v>
+        <v>16500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/03/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>15100</v>
+        <v>24300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23/02/2016</t>
+          <t>11/03/2016</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>24300</v>
+        <v>15100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>23/02/2016</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Edificios Altavista Vicente Valdés</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>32216</v>
+        <v>24300</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2891,21 +2891,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>8055</v>
+        <v>32216</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Edificios Altavista Vicente Valdés</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>24300</v>
+        <v>8055</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>11/05/2015</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Edificio Tres Lagos</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tres Lagos SpA</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>18930</v>
+        <v>24300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>07/05/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Edificio Tres Lagos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria Tres Lagos SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>24000</v>
+        <v>18930</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/04/2015</t>
+          <t>07/05/2015</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/03/2015</t>
+          <t>16/04/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>27/03/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,11 +3179,11 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/03/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>24100</v>
+        <v>15100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>10/03/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Colores del Abra</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic II S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>18861</v>
+        <v>24100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Colores del Abra</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Inmobiliaria Banvic II S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>24100</v>
+        <v>18861</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>23/01/2015</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>8055</v>
+        <v>15100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>8055</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Edificio Vicuña Mackenna-Vespucio</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Inversiones El Mirador Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Clínica Cruz Blanca Santiago</t>
+          <t>Edificio Vicuña Mackenna-Vespucio</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora CBS S.A.</t>
+          <t>Inversiones El Mirador Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>135406</v>
+        <v>30000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10/06/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Clínica Cruz Blanca Santiago</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inmobiliaria y Constructora CBS S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>135406</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>10/06/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Condominio María Elena</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna Poniente</t>
+          <t>Condominio María Elena</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
+          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Condominio Vicuña Mackenna Poniente</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1231</v>
+        <v>100</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>800</v>
+        <v>1231</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>02/12/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>26062</v>
+        <v>800</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Panul</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>80000</v>
+        <v>26062</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,26 +4552,26 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Proyecto Inmobiliario El Panul</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO EL PANUL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>PROYECTO INMOBILIARIO EL PANUL</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>1750</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4955,11 +4955,11 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/07/2010</t>
+          <t>05/08/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>23/07/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>6000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Condominio San Luis (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>VAIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4600</v>
+        <v>22</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Condominio San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>VAIN S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>746318</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>746318</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,12 +5954,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,20 +6434,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,11 +6587,11 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>250</v>
+        <v>60000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6735,17 +6735,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,30 +6866,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,20 +7106,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>8400</v>
+        <v>500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>20/05/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>EDIFICIO DON VICENTE (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20590</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>22/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
+          <t>EDIFICIO DON VICENTE (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic I S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>26000</v>
+        <v>20590</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>22/02/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,30 +7298,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Inmobiliaria Banvic I S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>80</v>
+        <v>26000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,20 +7394,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,20 +7442,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,20 +7826,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,30 +8018,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,12 +8066,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5300</v>
+        <v>1</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,30 +8306,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>5300</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8367,17 +8367,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,20 +8498,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria Maka S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>15188</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,20 +8546,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Inmobiliaria Maka S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>250</v>
+        <v>15188</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,20 +8642,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>25/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
+          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>25/07/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,20 +8738,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>500</v>
+        <v>1327</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8799,17 +8799,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,25 +8839,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -8895,17 +8895,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,20 +8930,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,30 +8978,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,20 +9218,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,20 +9266,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,25 +9367,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,30 +9410,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9471,17 +9471,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,20 +9602,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>12628</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
+          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A..</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>12628</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
+          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional de Energia ENEX S.A..</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>26/05/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>07/05/2004</t>
+          <t>26/05/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>07/05/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>18289</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>29/01/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
+          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>29000</v>
+        <v>18289</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>16/12/2002</t>
+          <t>29/01/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>12/12/2002</t>
+          <t>16/12/2002</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,11 +9995,11 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>27/11/2002</t>
+          <t>12/12/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,11 +10043,11 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>27/11/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
+          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,25 +10183,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SHELL Chile S.A.C. e I.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,25 +10231,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>SHELL Chile S.A.C. e I.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4000</v>
+        <v>740</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna</t>
+          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Arturo Garri Hammersley</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>17070</v>
+        <v>1000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Conjunto habitacional La Florida</t>
+          <t>Condominio Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Joaquín Luco Echeverría</t>
+          <t>Arturo Garri Hammersley</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>17070</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>24/01/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
+          <t>Conjunto habitacional La Florida</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Inmobiliaria VIMA S.A.</t>
+          <t>Joaquín Luco Echeverría</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>21/01/2002</t>
+          <t>24/01/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
+          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Inmobiliaria VIMA S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>21/01/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
+          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,30 +10610,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,30 +10658,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
+          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,15 +10711,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Proyecto Protege</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>21/06/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,30 +10744,30 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Asociación de Municipalidades Proyecto Protege</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1230</v>
+        <v>400</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>21/06/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Centro de Transferencia San Francisco</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,30 +10802,30 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>6400</v>
+        <v>1230</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,12 +10840,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Centro de Transferencia San Francisco</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -10855,25 +10855,25 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10911,17 +10911,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10959,17 +10959,17 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>02/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,15 +10999,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Giralda Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>20/06/2000</t>
+          <t>02/01/2001</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
+          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Inmobiliaria La Giralda Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Casa Parque de La Florida</t>
+          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,15 +11095,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>18300</v>
+        <v>2000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>10/05/2000</t>
+          <t>20/06/2000</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Villa Parque Jardín del Edén</t>
+          <t>Casa Parque de La Florida</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,15 +11143,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Inmobiliaria Jardín del Edén S.A.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1130</v>
+        <v>18300</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>10/05/2000</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Jardín de la Florida</t>
+          <t>Villa Parque Jardín del Edén</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,15 +11191,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Inmobiliaria Jardín del Edén S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>7900</v>
+        <v>1130</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>20/04/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rojas Magallanes</t>
+          <t>Proyecto Habitacional Jardín de la Florida</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,25 +11239,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Napo Ltda.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>7900</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>15/03/1999</t>
+          <t>20/04/1999</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Conjunto habitacional Rojas Magallanes IV</t>
+          <t>Conjunto Habitacional Rojas Magallanes</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,11 +11291,11 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>15/03/1999</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
+          <t>Conjunto habitacional Rojas Magallanes IV</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,25 +11335,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Petroleum S.A.</t>
+          <t>Inmobiliaria Rio Napo Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>10/11/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Proyecto Mall Florida Center</t>
+          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,15 +11383,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING S.A.</t>
+          <t>Petroleum S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>108120</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>10/11/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
+          <t>Proyecto Mall Florida Center</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,15 +11431,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>600</v>
+        <v>108120</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>23/07/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
+          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,15 +11479,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>20/05/1998</t>
+          <t>23/07/1998</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Hipermercado Santa Amalia</t>
+          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,25 +11527,25 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>D S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>30/03/1998</t>
+          <t>20/05/1998</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Agua Potable La Florida</t>
+          <t>Hipermercado Santa Amalia</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,25 +11575,25 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>D S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4000</v>
+        <v>23800</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>30/03/1998</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
+          <t>Planta de Agua Potable La Florida</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Carlos Rivas García Huidobro</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>35190</v>
+        <v>4000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>28/11/1997</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
+          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SOFOCAR</t>
+          <t>Carlos Rivas García Huidobro</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>550</v>
+        <v>35190</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>28/11/1997</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>The Home Depot Plaza Vespucio</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,15 +11719,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>The Home Depot Chile S.A.</t>
+          <t>SOFOCAR</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>12000</v>
+        <v>550</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>03/11/1997</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+          <t>The Home Depot Plaza Vespucio</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,15 +11767,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Inversiones Macalto S.A.</t>
+          <t>The Home Depot Chile S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>276000</v>
+        <v>12000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>23/10/1997</t>
+          <t>03/11/1997</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,43 +11800,91 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Inversiones Macalto S.A.</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>276000</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>23/10/1997</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F239" t="n">
+      <c r="F240" t="n">
         <v>300000</v>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr">
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>La Florida</t>
         </is>

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/04/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>35241</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Inversiones Macalto S.A.</t>
+          <t>Sinergia Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Baja Cordillera</t>
+          <t>Edificio Vicuña Mackenna 7211</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Cordillera SpA</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>35241</v>
+        <v>51745</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159058009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159872318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VICUÑA MACKENNA III</t>
+          <t>Nueva Subestación Seccionadora Baja Cordillera</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Empresa Eléctrica Cordillera SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17500</v>
+        <v>35241</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/04/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159002955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159058009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Condominio Vive Barcelona</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inmobiliaria Barcelona SPA</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>39660</v>
+        <v>17500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11/04/2023</t>
+          <t>13/04/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159002955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VICUÑA MACKENNA III</t>
+          <t>Condominio Vive Barcelona</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Barcelona SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17500</v>
+        <v>39660</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/04/2023</t>
+          <t>11/04/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158947322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Residencial Walker Martínez N°880</t>
+          <t>VICUÑA MACKENNA III</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inmobiliaria Walker Martínez 880 SpA.</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30/12/2022</t>
+          <t>03/04/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158947322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
+          <t>Proyecto Residencial Walker Martínez N°880</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Inmobiliaria Walker Martínez 880 SpA.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>48000</v>
+        <v>35000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>30/12/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158011351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación Ampliación Mall Plaza Vespucio</t>
+          <t>PROYECTO HABITACIONAL VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>241609</v>
+        <v>48000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155986602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vicente Valdés I y II</t>
+          <t>Modificación Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VICENTE VALDES SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>51183</v>
+        <v>241609</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154232065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Ulmo</t>
+          <t>Vicente Valdés I y II</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rentas El Ulmo SpA.</t>
+          <t>VICENTE VALDES SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>34200</v>
+        <v>51183</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>03/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154132287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 88</t>
+          <t>Proyecto Inmobiliario El Ulmo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pilares S.A.</t>
+          <t>Rentas El Ulmo SpA.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>53541</v>
+        <v>34200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>03/09/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153069415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Departamental - Froilán Roa</t>
+          <t>Edificio Vicente Valdés 88</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Inmobiliaria Pilares S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>40035</v>
+        <v>53541</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152913974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Edificio Vicente Valdés 86</t>
+          <t>Departamental - Froilán Roa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>45000</v>
+        <v>40035</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/08/2021</t>
+          <t>13/08/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152826060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Roberto Eduardo González Fourcade</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>02/08/2021</t>
+          <t>11/08/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152852514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Edificio Gerónimo de Alderete</t>
+          <t>Edificio Vicente Valdés 86</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme X SpA</t>
+          <t>Roberto Eduardo González Fourcade</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>02/08/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152803270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Gerónimo de Alderete</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Inmobiliaria Terrafirme X SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152374630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Edificio Américo Vespucio</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicuna Mackenna SPA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>41000</v>
+        <v>48000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148997261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Edificio Chimbote</t>
+          <t>Edificio Américo Vespucio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
+          <t>Inmobiliaria Vicuna Mackenna SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>30490</v>
+        <v>41000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05/01/2021</t>
+          <t>05/02/2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150686459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Avenida Vicuña Mackenna 11.115</t>
+          <t>Edificio Chimbote</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria El descubridor S.A.</t>
+          <t>INMOBILIARIA CHIMBOTE UNO SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15800</v>
+        <v>30490</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/09/2020</t>
+          <t>05/01/2021</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149457501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Edificio Froilán Roa</t>
+          <t>Avenida Vicuña Mackenna 11.115</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Froilán Roa SpA</t>
+          <t>Inmobiliaria El descubridor S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>55000</v>
+        <v>15800</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>08/09/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148053757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vicuña Mackenna 9101</t>
+          <t>Edificio Froilán Roa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad de Rentas Comerciales S.A</t>
+          <t>Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>48000</v>
+        <v>55000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146810633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul Uno</t>
+          <t>Vicuña Mackenna 9101</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria Mirador Azul Uno SpA</t>
+          <t>Sociedad de Rentas Comerciales S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>32645</v>
+        <v>48000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146179961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nueva Uno</t>
+          <t>Edificio Mirador Azul Uno</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria Nueva Uno SpA</t>
+          <t>Inmobiliaria Mirador Azul Uno SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>32000</v>
+        <v>32645</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/05/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146513416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Condominio Santa Inés</t>
+          <t>Nueva Uno</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>Inmobiliaria Nueva Uno SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>06/05/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146439330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Condominio Santa Inés</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>25/02/2020</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145671537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Edificio Activa Vicuña</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria Alto Hipodromo S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>33944</v>
+        <v>25000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificio Activa Vicuña</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria Alto Hipodromo S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>52900</v>
+        <v>33944</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>27/11/2019</t>
+          <t>09/12/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145091375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Edificios La Concepción</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inmobiliaria la marina S.A.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>46838</v>
+        <v>52900</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/11/2019</t>
+          <t>27/11/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145028805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EDIFICIO FROILÁN ROA</t>
+          <t>Edificios La Concepción</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inmobiliaria Froilán Roa SpA</t>
+          <t>Inmobiliaria la marina S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>52900</v>
+        <v>46838</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/11/2019</t>
+          <t>20/11/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144888474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación Edificio Aliwen</t>
+          <t>EDIFICIO FROILÁN ROA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
+          <t>Inmobiliaria Froilán Roa SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>28644</v>
+        <v>52900</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>07/11/2019</t>
+          <t>19/11/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144991710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Modificación Edificio Aliwen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Simonetti Inmobiliaria S.A.</t>
+          <t>Absalón Espinosa Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>15000</v>
+        <v>28644</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/10/2019</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144171071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Departamental 3</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ameris UPC Departamental Tres SpA</t>
+          <t>Simonetti Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>58457</v>
+        <v>15000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>30/10/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144520168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación Mall Plaza Vespucio</t>
+          <t>Departamental 3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Plaza Vespucio SpA</t>
+          <t>Ameris UPC Departamental Tres SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>170000</v>
+        <v>58457</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14/06/2019</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Ampliación Mall Plaza Vespucio</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Florida Uno SPA</t>
+          <t>Plaza Vespucio SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>47036</v>
+        <v>170000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/05/2019</t>
+          <t>14/06/2019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143464224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Edificio Mirador Azul</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Arrendamientos Mirador SpA</t>
+          <t>Inmobiliaria La Florida Uno SPA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>71863</v>
+        <v>47036</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/05/2019</t>
+          <t>08/05/2019</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143137598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Edificio Departamental 0891</t>
+          <t>Edificio Mirador Azul</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EUROCORP DOS S.A.</t>
+          <t>Arrendamientos Mirador SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>65844</v>
+        <v>71863</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/05/2019</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143107168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Edificio Quillayes La Florida</t>
+          <t>Edificio Departamental 0891</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Morros S.A.</t>
+          <t>EUROCORP DOS S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>48320</v>
+        <v>65844</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>06/05/2019</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143123240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Activa Millaray Llanquihue</t>
+          <t>Edificio Quillayes La Florida</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inmobiliaria Plaza Chacabuco S.A</t>
+          <t>Inmobiliaria Los Morros S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>45588</v>
+        <v>48320</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11/03/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142757978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Edificio Mackenna Consistorial</t>
+          <t>Activa Millaray Llanquihue</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>INMOBILIARIA PILARES S.A.</t>
+          <t>Inmobiliaria Plaza Chacabuco S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>41100</v>
+        <v>45588</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>28/11/2018</t>
+          <t>11/03/2019</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142666560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Condominio Santa Mónica</t>
+          <t>Edificio Mackenna Consistorial</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Mónica SpA</t>
+          <t>INMOBILIARIA PILARES S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>22000</v>
+        <v>41100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>24/08/2018</t>
+          <t>28/11/2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141934883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Edificios Exequiel Fernández</t>
+          <t>Condominio Santa Mónica</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
+          <t>Inmobiliaria Santa Mónica SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>62390</v>
+        <v>22000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/05/2018</t>
+          <t>24/08/2018</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141129264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Departamental 1475</t>
+          <t>Edificios Exequiel Fernández</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
+          <t>INMOBILIARIA EXEQUIEL FERNÁNDEZ SPA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>28120</v>
+        <v>62390</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/09/2017</t>
+          <t>23/05/2018</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139158466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TORRES DE VICUÑA MACKENNA</t>
+          <t>Departamental 1475</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LOS SILOS III S.A.</t>
+          <t>AMERIS UPC DEPARTAMENTAL SPA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>17000</v>
+        <v>28120</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26/07/2017</t>
+          <t>08/09/2017</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132693788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>TORRES DE VICUÑA MACKENNA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Vicente Tres Spa</t>
+          <t>INMOBILIARIA LOS SILOS III S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24300</v>
+        <v>17000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>26/07/2017</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132544994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Edificios Vista Bella Oriente</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vista Bella Ltda.</t>
+          <t>Inmobiliaria Don Vicente Tres Spa</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>28000</v>
+        <v>24300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132090506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Edificios Froilán Lagos</t>
+          <t>Edificios Vista Bella Oriente</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Inmobiliaria PDV 70 Spa</t>
+          <t>Inmobiliaria Vista Bella Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>28942</v>
+        <v>28000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131675609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/05/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Edificios Froilán Lagos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria PDV 70 Spa</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>15100</v>
+        <v>28942</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>30/05/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131429069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>16500</v>
+        <v>15100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>14/04/2016</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>24300</v>
+        <v>16500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/03/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131220811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>15100</v>
+        <v>24300</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23/02/2016</t>
+          <t>11/03/2016</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131235325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>24300</v>
+        <v>15100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>23/02/2016</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131177631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Edificios Altavista Vicente Valdés</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>32216</v>
+        <v>24300</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131178907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2939,21 +2939,21 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>8055</v>
+        <v>32216</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130683185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
+          <t>Edificios Altavista Vicente Valdés</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24300</v>
+        <v>8055</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>11/05/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Edificio Tres Lagos</t>
+          <t>EDIFICIO VICUÑA MACKENNA 7637 7639</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tres Lagos SpA</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>18930</v>
+        <v>24300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07/05/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130410658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Edificio Tres Lagos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria Tres Lagos SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>24000</v>
+        <v>18930</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/04/2015</t>
+          <t>07/05/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130432015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/03/2015</t>
+          <t>16/04/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130388342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>27/03/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130361632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,11 +3227,11 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130332476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/03/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>24100</v>
+        <v>15100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>10/03/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130284718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Colores del Abra</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic II S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>18861</v>
+        <v>24100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Condominio Parque Constanza</t>
+          <t>Colores del Abra</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
+          <t>Inmobiliaria Banvic II S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>24100</v>
+        <v>18861</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130234085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Tinajas</t>
+          <t>Condominio Parque Constanza</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Inmobiliaria y Constructora Insoc Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130148610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal La Florida</t>
+          <t>Conjunto Habitacional Las Tinajas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>23/01/2015</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
+          <t>Conjunto Habitacional Portal La Florida</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Inmobiliaria Vicente Valdés S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>8055</v>
+        <v>15100</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130137316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Inmobiliario "Edificios Altavista Vicente Valdés"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Vicente Valdés S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>8055</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130020600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Edificio Vicuña Mackenna-Vespucio</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Inversiones El Mirador Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Clínica Cruz Blanca Santiago</t>
+          <t>Edificio Vicuña Mackenna-Vespucio</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora CBS S.A.</t>
+          <t>Inversiones El Mirador Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>135406</v>
+        <v>30000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/06/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Clínica Cruz Blanca Santiago</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inmobiliaria y Constructora CBS S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>135406</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>10/06/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7863201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Condominio María Elena</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna Poniente</t>
+          <t>Condominio María Elena</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
+          <t>INMOBILIARIA VIVIENDAS 2000 LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7530056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Condominio Vicuña Mackenna Poniente</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>INMOBILIARIA Y CONSTRUCTORA TAORMINA LIMITADA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1231</v>
+        <v>100</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Modificación de Línea de Transmisión Eléctrica de 110 kV Florida- Los Almendros, Tramo Torre N° 32 a Torre N° 37, Sector Quebrada de Macul</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>800</v>
+        <v>1231</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>02/12/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6330822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,26 +4552,26 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario El Panul</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,12 +4600,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Proyecto Inmobiliario El Panul</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>26062</v>
+        <v>80000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>26062</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO EL PANUL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>PROYECTO INMOBILIARIO EL PANUL</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5829213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>1750</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>05/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5003,11 +5003,11 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/07/2010</t>
+          <t>05/08/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4820541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>23/07/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Fe Grande Maquinarias y Servicios S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Plan de Recuperación de Suelos Pozo Quillayes</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Fe Grande Maquinarias y Servicios S.A</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>6000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4500546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Condominio San Luis (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>VAIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4600</v>
+        <v>22</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Condominio San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>VAIN S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>746318</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>746318</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6015,17 +6015,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,20 +6482,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Administradora Gesterra S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul 164 (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,11 +6635,11 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3151122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Fundo El Panul Proyecto Inmobiliario Fundo El Panul (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Administradora Gesterra S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>60000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>DIA MODIFICACIÓN PLAN REGULADOR COMUNAL Nº 6: ZONAS ERD Y AJUSTE ART. 15 ORDENANZA LOCAL Exp. N° 138/2008 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,20 +7154,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>8400</v>
+        <v>500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>20/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>ESTACIÓN SAN JOSÉ DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>20/05/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2905978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>EDIFICIO DON VICENTE (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>20590</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>22/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
+          <t>EDIFICIO DON VICENTE (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Inmobiliaria Banvic I S.A.</t>
+          <t>INMOBILIARIA VIDA NUEVA LTDA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>26000</v>
+        <v>20590</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>22/02/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>"Vicuña Mackenna Poniente" 025/08 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,30 +7346,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Inmobiliaria Banvic I S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>80</v>
+        <v>26000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,20 +7442,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,20 +7490,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,30 +7586,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,20 +7874,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificacion Plan Regulador Comunal de la Florida via articulo 50 Ley General de Urbanismo y Construcciones, Sector Av. Departamental-calle Los Husares Exp. N° 099 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2261498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,30 +8066,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,12 +8114,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5300</v>
+        <v>1</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Terminal y Deposito de Buses Diego Portales (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,30 +8354,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>5300</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1921459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8415,17 +8415,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,25 +8503,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,20 +8546,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria Maka S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>15188</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Jardín del Edén Exp. Nº158/06 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,20 +8594,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Inmobiliaria Maka S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>250</v>
+        <v>15188</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,20 +8690,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>25/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
+          <t>PLAN VIAL, Modificación Nº 3 al Plan Regulador Comunal de La Florida. Plan Vial, Modificación Nº3 al Plan Regulador Comu (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>25/07/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Refuerzo Línea 110 kV Tap a S/E Santa Raquel Exp. Nº071 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,20 +8786,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>500</v>
+        <v>1327</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8847,17 +8847,17 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,25 +8887,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -8943,17 +8943,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,20 +8978,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,30 +9026,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,20 +9266,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal La Florida Modificación Plan Regulador Comunal La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,20 +9314,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=927637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,25 +9415,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,30 +9458,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,12 +9602,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9615,17 +9615,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,20 +9650,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>12628</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
+          <t>Obras para el Control de Aluviones y Arrastre de Sedimentos en Quebrada de Macul, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A..</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>12628</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
+          <t>Estación de Servicio YPF Colombia / W. Martínez - La Florida (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional de Energia ENEX S.A..</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>26/05/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=365526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO, "MPRMS.85, MODIFICA NORMATIVA PARQUES QUEBRADAS" (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>07/05/2004</t>
+          <t>26/05/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Modificación PRC de La Florida vía artículo Nº 50 Ley G. de U.C. sector Las Higueras (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>07/05/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>18289</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>29/01/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
+          <t>Proyecto Inmobiliario Jardines de la Viña (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Compañia Inmoblliaria de Tobalaba S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>29000</v>
+        <v>18289</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>16/12/2002</t>
+          <t>29/01/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,11 +9995,11 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>12/12/2002</t>
+          <t>16/12/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Rotonda Grecia-Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,11 +10043,11 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>27/11/2002</t>
+          <t>12/12/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,11 +10091,11 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>27/11/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Obras Previas y Piques Tramo Vicuña Mackenna-Puente Alto</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
+          <t>Colector de Aguas lluvias Walker Martínez y Diego Portales Tramo I</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,25 +10231,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SHELL Chile S.A.C. e I.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Estación de Servicio Shell Av. La Florida Nº 8930</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,25 +10279,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>SHELL Chile S.A.C. e I.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>4000</v>
+        <v>740</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Condominio Vicuña Mackenna</t>
+          <t>Obras Civiles Extensión Sur Cola de Maniobras - Línea 5</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Arturo Garri Hammersley</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>17070</v>
+        <v>1000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Conjunto habitacional La Florida</t>
+          <t>Condominio Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Joaquín Luco Echeverría</t>
+          <t>Arturo Garri Hammersley</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>17070</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>24/01/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
+          <t>Conjunto habitacional La Florida</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Inmobiliaria VIMA S.A.</t>
+          <t>Joaquín Luco Echeverría</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>21/01/2002</t>
+          <t>24/01/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
+          <t>Condominio José Miguel Carrera/Las 7 Plazas</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Inmobiliaria VIMA S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>21/01/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
+          <t>Estación de Servicios Esso Avda. Departamental N° 3885 esq. Avda. Tobalaba (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación Estación de Servicios ESSO ubicada en Av. La Florida Nº 9127</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,15 +10615,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,30 +10658,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,30 +10706,30 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
+          <t>Construcción Colector Aguas Lluvias Diego Portales y Walker Martínez Tramo II</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,15 +10759,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Proyecto Protege</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>21/06/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,30 +10792,30 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sendero de Chile Tramo Quebrada de Macul Ruta G25 Contrafuerte Cordillerano</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Asociación de Municipalidades Proyecto Protege</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1230</v>
+        <v>400</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>21/06/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Centro de Transferencia San Francisco</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,30 +10850,30 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>6400</v>
+        <v>1230</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,12 +10888,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Centro de Transferencia San Francisco</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -10903,25 +10903,25 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10959,17 +10959,17 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11007,17 +11007,17 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>02/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,15 +11047,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Giralda Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>20/06/2000</t>
+          <t>02/01/2001</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
+          <t>Estación de Servicio YPF Walker Martínez Nº2283 La Florida</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Inmobiliaria La Giralda Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Casa Parque de La Florida</t>
+          <t>Modificación Línea 110 kV S/E Ochagavía-S/E Florida Tramo Derivación Tap S/E Macul-S/E Florida</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,15 +11143,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>18300</v>
+        <v>2000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>10/05/2000</t>
+          <t>20/06/2000</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Villa Parque Jardín del Edén</t>
+          <t>Casa Parque de La Florida</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,15 +11191,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Inmobiliaria Jardín del Edén S.A.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1130</v>
+        <v>18300</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>10/05/2000</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Jardín de la Florida</t>
+          <t>Villa Parque Jardín del Edén</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,15 +11239,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Habitaria S.A.</t>
+          <t>Inmobiliaria Jardín del Edén S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>7900</v>
+        <v>1130</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>20/04/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rojas Magallanes</t>
+          <t>Proyecto Habitacional Jardín de la Florida</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,25 +11287,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Napo Ltda.</t>
+          <t>Habitaria S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>10000</v>
+        <v>7900</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>15/03/1999</t>
+          <t>20/04/1999</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Conjunto habitacional Rojas Magallanes IV</t>
+          <t>Conjunto Habitacional Rojas Magallanes</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11339,11 +11339,11 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>15/03/1999</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
+          <t>Conjunto habitacional Rojas Magallanes IV</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,25 +11383,25 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Petroleum S.A.</t>
+          <t>Inmobiliaria Rio Napo Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>10/11/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142869833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Proyecto Mall Florida Center</t>
+          <t>Estación de Servicio APEX San José de La Estrella Comuna de La Florida</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,15 +11431,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING S.A.</t>
+          <t>Petroleum S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>108120</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>10/11/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
+          <t>Proyecto Mall Florida Center</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,15 +11479,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>600</v>
+        <v>108120</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>23/07/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
+          <t>Estación de Servicio COPEC La Florida - Trinidad Oriente</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,15 +11527,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>20/05/1998</t>
+          <t>23/07/1998</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Hipermercado Santa Amalia</t>
+          <t>Modificación Plan Regulador Comunal de la Florida Sector Manzana Cívica</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,25 +11575,25 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>D S.A.</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>30/03/1998</t>
+          <t>20/05/1998</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Agua Potable La Florida</t>
+          <t>Hipermercado Santa Amalia</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,25 +11623,25 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>D S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4000</v>
+        <v>23800</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>30/03/1998</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
+          <t>Planta de Agua Potable La Florida</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Carlos Rivas García Huidobro</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>35190</v>
+        <v>4000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>28/11/1997</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
+          <t>Proyecto Inmobiliario Loteo 1A11A 6</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,15 +11719,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>SOFOCAR</t>
+          <t>Carlos Rivas García Huidobro</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>550</v>
+        <v>35190</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>28/11/1997</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>The Home Depot Plaza Vespucio</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales SOFACAR</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,15 +11767,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>The Home Depot Chile S.A.</t>
+          <t>SOFOCAR</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>12000</v>
+        <v>550</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>03/11/1997</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+          <t>The Home Depot Plaza Vespucio</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,15 +11815,15 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sinergia Inmobiliaria S.A.</t>
+          <t>The Home Depot Chile S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>276000</v>
+        <v>12000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>23/10/1997</t>
+          <t>03/11/1997</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,43 +11848,91 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Santa Sofía de Macul</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Sinergia Inmobiliaria S.A.</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>276000</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>23/10/1997</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=825&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F240" t="n">
+      <c r="F241" t="n">
         <v>300000</v>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I240" t="inlineStr">
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J240" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>La Florida</t>
         </is>

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/08/2023</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/La Florida.xlsx
+++ b/data/La Florida.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROYECTO ALTO EL HUALLE</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>INMOBILIARIA EL HUALLE S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>26062</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PROYECTO ALTO EL HUALLE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INMOBILIARIA EL HUALLE S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>26062</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6289832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
